--- a/5 改版后自动化网页提交/5.5/主题分配.xlsx
+++ b/5 改版后自动化网页提交/5.5/主题分配.xlsx
@@ -1,25 +1,27 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="18730"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9015" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9012" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="修改版" sheetId="4" r:id="rId1"/>
     <sheet name="最终分配版" sheetId="5" r:id="rId2"/>
+    <sheet name="老司机" sheetId="7" r:id="rId3"/>
   </sheets>
   <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">老司机!$A$1:$J$56</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">修改版!#REF!</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">最终分配版!#REF!</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">最终分配版!$A$1:$J$56</definedName>
   </definedNames>
   <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="787" uniqueCount="132">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="966" uniqueCount="134">
   <si>
     <t>文章来源</t>
   </si>
@@ -509,6 +511,14 @@
   </si>
   <si>
     <t>温度循环器</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>状态</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>RC6-6</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -824,6 +834,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -859,6 +886,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -1041,15 +1085,15 @@
       <selection sqref="A1:G50"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="11.625" customWidth="1"/>
+    <col min="2" max="2" width="11.6640625" customWidth="1"/>
     <col min="3" max="4" width="27" customWidth="1"/>
-    <col min="6" max="6" width="63.5" customWidth="1"/>
-    <col min="7" max="7" width="20.25" customWidth="1"/>
+    <col min="6" max="6" width="63.44140625" customWidth="1"/>
+    <col min="7" max="7" width="20.21875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" s="5" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:8" s="5" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>3</v>
       </c>
@@ -1075,7 +1119,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:8" s="5" customFormat="1" ht="16.5" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:8" s="5" customFormat="1" ht="15.6" x14ac:dyDescent="0.35">
       <c r="A2" s="14">
         <v>1</v>
       </c>
@@ -1101,7 +1145,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="3" spans="1:8" s="5" customFormat="1" ht="16.5" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:8" s="5" customFormat="1" ht="15.6" x14ac:dyDescent="0.35">
       <c r="A3" s="14">
         <v>2</v>
       </c>
@@ -1127,7 +1171,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="4" spans="1:8" ht="16.5" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:8" ht="15.6" x14ac:dyDescent="0.35">
       <c r="A4" s="14">
         <v>3</v>
       </c>
@@ -1153,7 +1197,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="5" spans="1:8" ht="16.5" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:8" ht="15.6" x14ac:dyDescent="0.35">
       <c r="A5" s="14">
         <v>4</v>
       </c>
@@ -1179,7 +1223,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="6" spans="1:8" ht="16.5" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:8" ht="15.6" x14ac:dyDescent="0.35">
       <c r="A6" s="14">
         <v>5</v>
       </c>
@@ -1205,7 +1249,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="7" spans="1:8" ht="16.5" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:8" ht="15.6" x14ac:dyDescent="0.35">
       <c r="A7" s="14">
         <v>6</v>
       </c>
@@ -1231,7 +1275,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="8" spans="1:8" ht="16.5" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:8" ht="15.6" x14ac:dyDescent="0.35">
       <c r="A8" s="14">
         <v>7</v>
       </c>
@@ -1257,7 +1301,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="9" spans="1:8" ht="16.5" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:8" ht="15.6" x14ac:dyDescent="0.35">
       <c r="A9" s="14">
         <v>8</v>
       </c>
@@ -1283,7 +1327,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="10" spans="1:8" ht="16.5" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:8" ht="15.6" x14ac:dyDescent="0.35">
       <c r="A10" s="14">
         <v>9</v>
       </c>
@@ -1309,7 +1353,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="11" spans="1:8" ht="16.5" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:8" ht="15.6" x14ac:dyDescent="0.35">
       <c r="A11" s="14">
         <v>10</v>
       </c>
@@ -1335,7 +1379,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="12" spans="1:8" ht="16.5" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:8" ht="15.6" x14ac:dyDescent="0.35">
       <c r="A12" s="14">
         <v>11</v>
       </c>
@@ -1361,7 +1405,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="13" spans="1:8" ht="16.5" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:8" ht="15.6" x14ac:dyDescent="0.35">
       <c r="A13" s="14">
         <v>12</v>
       </c>
@@ -1387,7 +1431,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="14" spans="1:8" ht="16.5" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:8" ht="15.6" x14ac:dyDescent="0.35">
       <c r="A14" s="14">
         <v>13</v>
       </c>
@@ -1413,7 +1457,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="15" spans="1:8" ht="16.5" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:8" ht="15.6" x14ac:dyDescent="0.35">
       <c r="A15" s="14">
         <v>15</v>
       </c>
@@ -1439,7 +1483,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="16" spans="1:8" ht="16.5" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:8" ht="15.6" x14ac:dyDescent="0.35">
       <c r="A16" s="14">
         <v>16</v>
       </c>
@@ -1465,7 +1509,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="17" spans="1:8" ht="16.5" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:8" ht="15.6" x14ac:dyDescent="0.35">
       <c r="A17" s="14">
         <v>17</v>
       </c>
@@ -1491,7 +1535,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="18" spans="1:8" ht="16.5" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:8" ht="15.6" x14ac:dyDescent="0.35">
       <c r="A18" s="14">
         <v>18</v>
       </c>
@@ -1517,7 +1561,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="19" spans="1:8" s="5" customFormat="1" ht="16.5" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:8" s="5" customFormat="1" ht="15.6" x14ac:dyDescent="0.35">
       <c r="A19" s="14">
         <v>19</v>
       </c>
@@ -1543,7 +1587,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="20" spans="1:8" ht="16.5" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:8" ht="15.6" x14ac:dyDescent="0.35">
       <c r="A20" s="14">
         <v>20</v>
       </c>
@@ -1569,7 +1613,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="21" spans="1:8" ht="16.5" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:8" ht="15.6" x14ac:dyDescent="0.35">
       <c r="A21" s="14">
         <v>21</v>
       </c>
@@ -1595,7 +1639,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="22" spans="1:8" ht="16.5" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:8" ht="15.6" x14ac:dyDescent="0.35">
       <c r="A22" s="14">
         <v>22</v>
       </c>
@@ -1621,7 +1665,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="23" spans="1:8" ht="16.5" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:8" ht="15.6" x14ac:dyDescent="0.35">
       <c r="A23" s="14">
         <v>23</v>
       </c>
@@ -1647,7 +1691,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="24" spans="1:8" ht="16.5" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:8" ht="15.6" x14ac:dyDescent="0.35">
       <c r="A24" s="14">
         <v>24</v>
       </c>
@@ -1673,7 +1717,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="25" spans="1:8" ht="16.5" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:8" ht="15.6" x14ac:dyDescent="0.35">
       <c r="A25" s="14">
         <v>25</v>
       </c>
@@ -1699,7 +1743,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="26" spans="1:8" ht="16.5" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:8" ht="15.6" x14ac:dyDescent="0.35">
       <c r="A26" s="14">
         <v>26</v>
       </c>
@@ -1725,7 +1769,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="27" spans="1:8" ht="16.5" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:8" ht="15.6" x14ac:dyDescent="0.35">
       <c r="A27" s="14">
         <v>27</v>
       </c>
@@ -1751,7 +1795,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="28" spans="1:8" ht="16.5" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:8" ht="15.6" x14ac:dyDescent="0.35">
       <c r="A28" s="14">
         <v>28</v>
       </c>
@@ -1777,7 +1821,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="29" spans="1:8" ht="16.5" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:8" ht="15.6" x14ac:dyDescent="0.35">
       <c r="A29" s="4">
         <v>29</v>
       </c>
@@ -1803,7 +1847,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="30" spans="1:8" ht="16.5" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:8" ht="15.6" x14ac:dyDescent="0.35">
       <c r="A30" s="4">
         <v>30</v>
       </c>
@@ -1829,7 +1873,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="31" spans="1:8" ht="16.5" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:8" ht="15.6" x14ac:dyDescent="0.35">
       <c r="A31" s="4">
         <v>31</v>
       </c>
@@ -1855,7 +1899,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="32" spans="1:8" ht="16.5" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:8" ht="15.6" x14ac:dyDescent="0.35">
       <c r="A32" s="4">
         <v>32</v>
       </c>
@@ -1881,7 +1925,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="33" spans="1:8" ht="16.5" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:8" ht="15.6" x14ac:dyDescent="0.35">
       <c r="A33" s="4">
         <v>33</v>
       </c>
@@ -1907,7 +1951,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="34" spans="1:8" ht="16.5" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:8" ht="15.6" x14ac:dyDescent="0.35">
       <c r="A34" s="4">
         <v>34</v>
       </c>
@@ -1933,7 +1977,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="35" spans="1:8" ht="16.5" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:8" ht="15.6" x14ac:dyDescent="0.35">
       <c r="A35" s="4">
         <v>35</v>
       </c>
@@ -1959,7 +2003,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="36" spans="1:8" ht="16.5" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:8" ht="15.6" x14ac:dyDescent="0.35">
       <c r="A36" s="4">
         <v>36</v>
       </c>
@@ -1985,7 +2029,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="37" spans="1:8" ht="16.5" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:8" ht="15.6" x14ac:dyDescent="0.35">
       <c r="A37" s="4">
         <v>37</v>
       </c>
@@ -2011,7 +2055,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="38" spans="1:8" ht="16.5" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:8" ht="15.6" x14ac:dyDescent="0.35">
       <c r="A38" s="4">
         <v>38</v>
       </c>
@@ -2037,7 +2081,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="39" spans="1:8" ht="16.5" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:8" ht="15.6" x14ac:dyDescent="0.35">
       <c r="A39" s="4">
         <v>39</v>
       </c>
@@ -2063,7 +2107,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="40" spans="1:8" ht="16.5" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:8" ht="15.6" x14ac:dyDescent="0.35">
       <c r="A40" s="4">
         <v>40</v>
       </c>
@@ -2089,7 +2133,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="41" spans="1:8" ht="16.5" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:8" ht="15.6" x14ac:dyDescent="0.35">
       <c r="A41" s="4">
         <v>41</v>
       </c>
@@ -2115,7 +2159,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="42" spans="1:8" ht="16.5" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:8" ht="15.6" x14ac:dyDescent="0.35">
       <c r="A42" s="4">
         <v>42</v>
       </c>
@@ -2141,7 +2185,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="43" spans="1:8" ht="16.5" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:8" ht="15.6" x14ac:dyDescent="0.35">
       <c r="A43" s="4">
         <v>43</v>
       </c>
@@ -2167,7 +2211,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="44" spans="1:8" ht="16.5" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:8" ht="15.6" x14ac:dyDescent="0.35">
       <c r="A44" s="4">
         <v>44</v>
       </c>
@@ -2193,7 +2237,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="45" spans="1:8" ht="16.5" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:8" ht="15.6" x14ac:dyDescent="0.35">
       <c r="A45" s="4">
         <v>45</v>
       </c>
@@ -2219,7 +2263,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="46" spans="1:8" ht="16.5" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:8" ht="15.6" x14ac:dyDescent="0.35">
       <c r="A46" s="4">
         <v>46</v>
       </c>
@@ -2245,7 +2289,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="47" spans="1:8" ht="16.5" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:8" ht="15.6" x14ac:dyDescent="0.35">
       <c r="A47" s="4">
         <v>47</v>
       </c>
@@ -2271,7 +2315,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="48" spans="1:8" ht="16.5" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:8" ht="15.6" x14ac:dyDescent="0.35">
       <c r="A48" s="4">
         <v>48</v>
       </c>
@@ -2297,7 +2341,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="49" spans="1:8" ht="16.5" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:8" ht="15.6" x14ac:dyDescent="0.35">
       <c r="A49" s="4">
         <v>49</v>
       </c>
@@ -2323,7 +2367,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="50" spans="1:8" ht="16.5" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:8" ht="15.6" x14ac:dyDescent="0.35">
       <c r="A50" s="4">
         <v>50</v>
       </c>
@@ -2349,7 +2393,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="51" spans="1:8" ht="16.5" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:8" ht="15.6" x14ac:dyDescent="0.35">
       <c r="A51" s="4">
         <v>51</v>
       </c>
@@ -2375,7 +2419,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="52" spans="1:8" ht="16.5" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:8" ht="15.6" x14ac:dyDescent="0.35">
       <c r="A52" s="4">
         <v>52</v>
       </c>
@@ -2401,7 +2445,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="53" spans="1:8" ht="16.5" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:8" ht="15.6" x14ac:dyDescent="0.35">
       <c r="A53" s="4">
         <v>53</v>
       </c>
@@ -2427,7 +2471,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="54" spans="1:8" ht="16.5" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:8" ht="15.6" x14ac:dyDescent="0.35">
       <c r="A54" s="4">
         <v>54</v>
       </c>
@@ -2453,7 +2497,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="55" spans="1:8" ht="16.5" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:8" ht="15.6" x14ac:dyDescent="0.35">
       <c r="A55" s="4">
         <v>55</v>
       </c>
@@ -2479,7 +2523,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="56" spans="1:8" ht="16.5" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:8" ht="15.6" x14ac:dyDescent="0.35">
       <c r="A56" s="4">
         <v>56</v>
       </c>
@@ -2505,7 +2549,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="57" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="57" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A57" s="8"/>
       <c r="B57" s="8"/>
       <c r="C57" s="8"/>
@@ -2552,21 +2596,21 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I57"/>
+  <dimension ref="A1:J57"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="L21" sqref="L21"/>
+    <sheetView topLeftCell="A24" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="E34" sqref="E34"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="3" max="3" width="11.625" customWidth="1"/>
-    <col min="4" max="5" width="27" customWidth="1"/>
-    <col min="7" max="7" width="63.5" customWidth="1"/>
-    <col min="8" max="8" width="20.25" customWidth="1"/>
+    <col min="4" max="4" width="11.6640625" customWidth="1"/>
+    <col min="5" max="6" width="27" customWidth="1"/>
+    <col min="8" max="8" width="63.44140625" customWidth="1"/>
+    <col min="9" max="9" width="20.21875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" s="5" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:10" s="5" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>3</v>
       </c>
@@ -2574,1623 +2618,1791 @@
         <v>130</v>
       </c>
       <c r="C1" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="D1" s="9" t="s">
+      <c r="E1" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="E1" s="12" t="s">
+      <c r="F1" s="12" t="s">
         <v>129</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="I1" s="2" t="s">
+      <c r="J1" s="2" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:9" s="5" customFormat="1" ht="16.5" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:10" s="5" customFormat="1" ht="15.6" x14ac:dyDescent="0.35">
       <c r="A2" s="14">
         <v>1</v>
       </c>
       <c r="B2" s="14">
         <v>1</v>
       </c>
-      <c r="C2" s="14" t="s">
-        <v>8</v>
-      </c>
-      <c r="D2" s="15" t="s">
+      <c r="C2" s="14">
+        <v>0</v>
+      </c>
+      <c r="D2" s="14" t="s">
+        <v>8</v>
+      </c>
+      <c r="E2" s="15" t="s">
         <v>104</v>
       </c>
-      <c r="E2" s="16" t="s">
+      <c r="F2" s="16" t="s">
         <v>125</v>
       </c>
-      <c r="F2" s="17" t="s">
-        <v>7</v>
-      </c>
-      <c r="G2" s="18" t="s">
+      <c r="G2" s="17" t="s">
+        <v>7</v>
+      </c>
+      <c r="H2" s="18" t="s">
         <v>12</v>
       </c>
-      <c r="H2" s="19" t="s">
+      <c r="I2" s="19" t="s">
         <v>10</v>
       </c>
-      <c r="I2" s="14" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" s="5" customFormat="1" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="J2" s="14" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" s="5" customFormat="1" ht="15.6" x14ac:dyDescent="0.35">
       <c r="A3" s="14">
         <v>2</v>
       </c>
       <c r="B3" s="14">
         <v>2</v>
       </c>
-      <c r="C3" s="14" t="s">
-        <v>8</v>
-      </c>
-      <c r="D3" s="15" t="s">
+      <c r="C3" s="14">
+        <v>0</v>
+      </c>
+      <c r="D3" s="14" t="s">
+        <v>8</v>
+      </c>
+      <c r="E3" s="15" t="s">
         <v>13</v>
       </c>
-      <c r="E3" s="16" t="s">
+      <c r="F3" s="16" t="s">
         <v>125</v>
       </c>
-      <c r="F3" s="17" t="s">
-        <v>7</v>
-      </c>
-      <c r="G3" s="18" t="s">
+      <c r="G3" s="17" t="s">
+        <v>7</v>
+      </c>
+      <c r="H3" s="18" t="s">
         <v>14</v>
       </c>
-      <c r="H3" s="19" t="s">
+      <c r="I3" s="19" t="s">
         <v>10</v>
       </c>
-      <c r="I3" s="14" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="J3" s="14" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" ht="15.6" x14ac:dyDescent="0.35">
       <c r="A4" s="14">
         <v>3</v>
       </c>
       <c r="B4" s="14">
         <v>3</v>
       </c>
-      <c r="C4" s="14" t="s">
-        <v>8</v>
-      </c>
-      <c r="D4" s="15" t="s">
+      <c r="C4" s="14">
+        <v>0</v>
+      </c>
+      <c r="D4" s="14" t="s">
+        <v>8</v>
+      </c>
+      <c r="E4" s="15" t="s">
         <v>15</v>
       </c>
-      <c r="E4" s="16" t="s">
+      <c r="F4" s="16" t="s">
         <v>125</v>
       </c>
-      <c r="F4" s="17" t="s">
-        <v>7</v>
-      </c>
-      <c r="G4" s="18" t="s">
+      <c r="G4" s="17" t="s">
+        <v>7</v>
+      </c>
+      <c r="H4" s="18" t="s">
         <v>16</v>
       </c>
-      <c r="H4" s="19" t="s">
+      <c r="I4" s="19" t="s">
         <v>10</v>
       </c>
-      <c r="I4" s="14" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="J4" s="14" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" ht="15.6" x14ac:dyDescent="0.35">
       <c r="A5" s="14">
         <v>4</v>
       </c>
       <c r="B5" s="14">
         <v>4</v>
       </c>
-      <c r="C5" s="14" t="s">
-        <v>8</v>
-      </c>
-      <c r="D5" s="15" t="s">
+      <c r="C5" s="14">
+        <v>0</v>
+      </c>
+      <c r="D5" s="14" t="s">
+        <v>8</v>
+      </c>
+      <c r="E5" s="15" t="s">
         <v>17</v>
       </c>
-      <c r="E5" s="16" t="s">
+      <c r="F5" s="16" t="s">
         <v>125</v>
       </c>
-      <c r="F5" s="17" t="s">
-        <v>7</v>
-      </c>
-      <c r="G5" s="18" t="s">
+      <c r="G5" s="17" t="s">
+        <v>7</v>
+      </c>
+      <c r="H5" s="18" t="s">
         <v>18</v>
       </c>
-      <c r="H5" s="19" t="s">
+      <c r="I5" s="19" t="s">
         <v>10</v>
       </c>
-      <c r="I5" s="14" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="J5" s="14" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" ht="15.6" x14ac:dyDescent="0.35">
       <c r="A6" s="14">
         <v>5</v>
       </c>
       <c r="B6" s="14">
         <v>5</v>
       </c>
-      <c r="C6" s="14" t="s">
-        <v>8</v>
-      </c>
-      <c r="D6" s="15" t="s">
+      <c r="C6" s="14">
+        <v>0</v>
+      </c>
+      <c r="D6" s="14" t="s">
+        <v>8</v>
+      </c>
+      <c r="E6" s="15" t="s">
         <v>19</v>
       </c>
-      <c r="E6" s="16" t="s">
+      <c r="F6" s="16" t="s">
         <v>125</v>
       </c>
-      <c r="F6" s="17" t="s">
-        <v>7</v>
-      </c>
-      <c r="G6" s="18" t="s">
+      <c r="G6" s="17" t="s">
+        <v>7</v>
+      </c>
+      <c r="H6" s="18" t="s">
         <v>20</v>
       </c>
-      <c r="H6" s="19" t="s">
+      <c r="I6" s="19" t="s">
         <v>10</v>
       </c>
-      <c r="I6" s="14" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="J6" s="14" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" ht="15.6" x14ac:dyDescent="0.35">
       <c r="A7" s="14">
         <v>6</v>
       </c>
       <c r="B7" s="14">
         <v>6</v>
       </c>
-      <c r="C7" s="14" t="s">
+      <c r="C7" s="14">
+        <v>0</v>
+      </c>
+      <c r="D7" s="14" t="s">
         <v>124</v>
       </c>
-      <c r="D7" s="15" t="s">
+      <c r="E7" s="15" t="s">
         <v>21</v>
       </c>
-      <c r="E7" s="16" t="s">
+      <c r="F7" s="16" t="s">
         <v>125</v>
       </c>
-      <c r="F7" s="17" t="s">
-        <v>7</v>
-      </c>
-      <c r="G7" s="18" t="s">
+      <c r="G7" s="17" t="s">
+        <v>7</v>
+      </c>
+      <c r="H7" s="18" t="s">
         <v>22</v>
       </c>
-      <c r="H7" s="19" t="s">
+      <c r="I7" s="19" t="s">
         <v>10</v>
       </c>
-      <c r="I7" s="14" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="J7" s="14" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" ht="15.6" x14ac:dyDescent="0.35">
       <c r="A8" s="14">
         <v>7</v>
       </c>
       <c r="B8" s="14">
         <v>7</v>
       </c>
-      <c r="C8" s="14" t="s">
-        <v>8</v>
-      </c>
-      <c r="D8" s="15" t="s">
+      <c r="C8" s="14">
+        <v>0</v>
+      </c>
+      <c r="D8" s="14" t="s">
+        <v>8</v>
+      </c>
+      <c r="E8" s="15" t="s">
         <v>24</v>
       </c>
-      <c r="E8" s="16" t="s">
+      <c r="F8" s="16" t="s">
         <v>125</v>
       </c>
-      <c r="F8" s="17" t="s">
-        <v>7</v>
-      </c>
-      <c r="G8" s="18" t="s">
+      <c r="G8" s="17" t="s">
+        <v>7</v>
+      </c>
+      <c r="H8" s="18" t="s">
         <v>23</v>
       </c>
-      <c r="H8" s="19" t="s">
+      <c r="I8" s="19" t="s">
         <v>10</v>
       </c>
-      <c r="I8" s="14" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="J8" s="14" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" ht="15.6" x14ac:dyDescent="0.35">
       <c r="A9" s="14">
         <v>8</v>
       </c>
       <c r="B9" s="14">
         <v>8</v>
       </c>
-      <c r="C9" s="14" t="s">
-        <v>8</v>
-      </c>
-      <c r="D9" s="15" t="s">
+      <c r="C9" s="14">
+        <v>0</v>
+      </c>
+      <c r="D9" s="14" t="s">
+        <v>8</v>
+      </c>
+      <c r="E9" s="15" t="s">
         <v>25</v>
       </c>
-      <c r="E9" s="16" t="s">
+      <c r="F9" s="16" t="s">
         <v>131</v>
       </c>
-      <c r="F9" s="17" t="s">
-        <v>7</v>
-      </c>
-      <c r="G9" s="18" t="s">
+      <c r="G9" s="17" t="s">
+        <v>7</v>
+      </c>
+      <c r="H9" s="18" t="s">
         <v>9</v>
       </c>
-      <c r="H9" s="19" t="s">
+      <c r="I9" s="19" t="s">
         <v>10</v>
       </c>
-      <c r="I9" s="14" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="J9" s="14" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" ht="15.6" x14ac:dyDescent="0.35">
       <c r="A10" s="14">
         <v>9</v>
       </c>
       <c r="B10" s="14">
         <v>9</v>
       </c>
-      <c r="C10" s="14" t="s">
-        <v>8</v>
-      </c>
-      <c r="D10" s="15" t="s">
+      <c r="C10" s="14">
+        <v>0</v>
+      </c>
+      <c r="D10" s="14" t="s">
+        <v>8</v>
+      </c>
+      <c r="E10" s="15" t="s">
         <v>26</v>
       </c>
-      <c r="E10" s="16" t="s">
+      <c r="F10" s="16" t="s">
         <v>125</v>
       </c>
-      <c r="F10" s="17" t="s">
-        <v>7</v>
-      </c>
-      <c r="G10" s="18" t="s">
+      <c r="G10" s="17" t="s">
+        <v>7</v>
+      </c>
+      <c r="H10" s="18" t="s">
         <v>27</v>
       </c>
-      <c r="H10" s="19" t="s">
+      <c r="I10" s="19" t="s">
         <v>10</v>
       </c>
-      <c r="I10" s="14" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="J10" s="14" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" ht="15.6" x14ac:dyDescent="0.35">
       <c r="A11" s="14">
         <v>10</v>
       </c>
       <c r="B11" s="14">
         <v>10</v>
       </c>
-      <c r="C11" s="14" t="s">
-        <v>8</v>
-      </c>
-      <c r="D11" s="15" t="s">
+      <c r="C11" s="14">
+        <v>0</v>
+      </c>
+      <c r="D11" s="14" t="s">
+        <v>8</v>
+      </c>
+      <c r="E11" s="15" t="s">
         <v>105</v>
       </c>
-      <c r="E11" s="16" t="s">
+      <c r="F11" s="16" t="s">
         <v>125</v>
       </c>
-      <c r="F11" s="17" t="s">
-        <v>7</v>
-      </c>
-      <c r="G11" s="18" t="s">
+      <c r="G11" s="17" t="s">
+        <v>7</v>
+      </c>
+      <c r="H11" s="18" t="s">
         <v>28</v>
       </c>
-      <c r="H11" s="19" t="s">
+      <c r="I11" s="19" t="s">
         <v>10</v>
       </c>
-      <c r="I11" s="14" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="J11" s="14" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" ht="15.6" x14ac:dyDescent="0.35">
       <c r="A12" s="14">
         <v>11</v>
       </c>
       <c r="B12" s="14">
         <v>11</v>
       </c>
-      <c r="C12" s="14" t="s">
-        <v>8</v>
-      </c>
-      <c r="D12" s="15" t="s">
+      <c r="C12" s="14">
+        <v>0</v>
+      </c>
+      <c r="D12" s="14" t="s">
+        <v>8</v>
+      </c>
+      <c r="E12" s="15" t="s">
         <v>31</v>
       </c>
-      <c r="E12" s="16" t="s">
+      <c r="F12" s="16" t="s">
         <v>125</v>
       </c>
-      <c r="F12" s="17" t="s">
-        <v>7</v>
-      </c>
-      <c r="G12" s="18" t="s">
+      <c r="G12" s="17" t="s">
+        <v>7</v>
+      </c>
+      <c r="H12" s="18" t="s">
         <v>29</v>
       </c>
-      <c r="H12" s="19" t="s">
+      <c r="I12" s="19" t="s">
         <v>10</v>
       </c>
-      <c r="I12" s="14" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="J12" s="14" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" ht="15.6" x14ac:dyDescent="0.35">
       <c r="A13" s="14">
         <v>12</v>
       </c>
       <c r="B13" s="14">
         <v>12</v>
       </c>
-      <c r="C13" s="14" t="s">
+      <c r="C13" s="14">
+        <v>0</v>
+      </c>
+      <c r="D13" s="14" t="s">
         <v>124</v>
       </c>
-      <c r="D13" s="15" t="s">
+      <c r="E13" s="15" t="s">
         <v>32</v>
       </c>
-      <c r="E13" s="16" t="s">
+      <c r="F13" s="16" t="s">
         <v>125</v>
       </c>
-      <c r="F13" s="17" t="s">
-        <v>7</v>
-      </c>
-      <c r="G13" s="18" t="s">
+      <c r="G13" s="17" t="s">
+        <v>7</v>
+      </c>
+      <c r="H13" s="18" t="s">
         <v>30</v>
       </c>
-      <c r="H13" s="19" t="s">
+      <c r="I13" s="19" t="s">
         <v>10</v>
       </c>
-      <c r="I13" s="14" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="J13" s="14" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" ht="15.6" x14ac:dyDescent="0.35">
       <c r="A14" s="14">
         <v>13</v>
       </c>
       <c r="B14" s="14">
         <v>13</v>
       </c>
-      <c r="C14" s="14" t="s">
-        <v>8</v>
-      </c>
-      <c r="D14" s="15" t="s">
+      <c r="C14" s="14">
+        <v>0</v>
+      </c>
+      <c r="D14" s="14" t="s">
+        <v>8</v>
+      </c>
+      <c r="E14" s="15" t="s">
         <v>34</v>
       </c>
-      <c r="E14" s="16" t="s">
+      <c r="F14" s="16" t="s">
         <v>126</v>
       </c>
-      <c r="F14" s="17" t="s">
-        <v>7</v>
-      </c>
-      <c r="G14" s="18" t="s">
+      <c r="G14" s="17" t="s">
+        <v>7</v>
+      </c>
+      <c r="H14" s="18" t="s">
         <v>33</v>
       </c>
-      <c r="H14" s="19" t="s">
+      <c r="I14" s="19" t="s">
         <v>10</v>
       </c>
-      <c r="I14" s="14" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="J14" s="14" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" ht="15.6" x14ac:dyDescent="0.35">
       <c r="A15" s="14">
         <v>15</v>
       </c>
       <c r="B15" s="14">
         <v>14</v>
       </c>
-      <c r="C15" s="14" t="s">
-        <v>8</v>
-      </c>
-      <c r="D15" s="15" t="s">
+      <c r="C15" s="14">
+        <v>0</v>
+      </c>
+      <c r="D15" s="14" t="s">
+        <v>8</v>
+      </c>
+      <c r="E15" s="15" t="s">
         <v>106</v>
       </c>
-      <c r="E15" s="16" t="s">
+      <c r="F15" s="16" t="s">
         <v>127</v>
       </c>
-      <c r="F15" s="17" t="s">
-        <v>7</v>
-      </c>
-      <c r="G15" s="18" t="s">
+      <c r="G15" s="17" t="s">
+        <v>7</v>
+      </c>
+      <c r="H15" s="18" t="s">
         <v>35</v>
       </c>
-      <c r="H15" s="19" t="s">
-        <v>36</v>
-      </c>
-      <c r="I15" s="14" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="I15" s="19" t="s">
+        <v>36</v>
+      </c>
+      <c r="J15" s="14" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" ht="15.6" x14ac:dyDescent="0.35">
       <c r="A16" s="14">
         <v>16</v>
       </c>
       <c r="B16" s="14">
         <v>15</v>
       </c>
-      <c r="C16" s="14" t="s">
-        <v>8</v>
-      </c>
-      <c r="D16" s="15" t="s">
+      <c r="C16" s="14">
+        <v>0</v>
+      </c>
+      <c r="D16" s="14" t="s">
+        <v>8</v>
+      </c>
+      <c r="E16" s="15" t="s">
         <v>107</v>
       </c>
-      <c r="E16" s="16" t="s">
+      <c r="F16" s="16" t="s">
         <v>127</v>
       </c>
-      <c r="F16" s="17" t="s">
-        <v>7</v>
-      </c>
-      <c r="G16" s="18" t="s">
+      <c r="G16" s="17" t="s">
+        <v>7</v>
+      </c>
+      <c r="H16" s="18" t="s">
         <v>37</v>
       </c>
-      <c r="H16" s="19" t="s">
-        <v>36</v>
-      </c>
-      <c r="I16" s="14" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="17" spans="1:9" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="I16" s="19" t="s">
+        <v>36</v>
+      </c>
+      <c r="J16" s="14" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" ht="15.6" x14ac:dyDescent="0.35">
       <c r="A17" s="14">
         <v>35</v>
       </c>
       <c r="B17" s="14">
         <v>16</v>
       </c>
-      <c r="C17" s="14" t="s">
-        <v>8</v>
-      </c>
-      <c r="D17" s="15" t="s">
+      <c r="C17" s="14">
+        <v>0</v>
+      </c>
+      <c r="D17" s="14" t="s">
+        <v>8</v>
+      </c>
+      <c r="E17" s="15" t="s">
         <v>68</v>
       </c>
-      <c r="E17" s="16" t="s">
+      <c r="F17" s="16" t="s">
         <v>127</v>
       </c>
-      <c r="F17" s="17" t="s">
-        <v>7</v>
-      </c>
-      <c r="G17" s="18" t="s">
+      <c r="G17" s="17" t="s">
+        <v>7</v>
+      </c>
+      <c r="H17" s="18" t="s">
         <v>69</v>
       </c>
-      <c r="H17" s="19" t="s">
-        <v>36</v>
-      </c>
-      <c r="I17" s="14" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="18" spans="1:9" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="I17" s="19" t="s">
+        <v>36</v>
+      </c>
+      <c r="J17" s="14" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" ht="15.6" x14ac:dyDescent="0.35">
       <c r="A18" s="14">
         <v>36</v>
       </c>
       <c r="B18" s="14">
         <v>17</v>
       </c>
-      <c r="C18" s="14" t="s">
-        <v>8</v>
-      </c>
-      <c r="D18" s="15" t="s">
+      <c r="C18" s="14">
+        <v>0</v>
+      </c>
+      <c r="D18" s="14" t="s">
+        <v>8</v>
+      </c>
+      <c r="E18" s="15" t="s">
         <v>114</v>
       </c>
-      <c r="E18" s="16" t="s">
+      <c r="F18" s="16" t="s">
         <v>127</v>
       </c>
-      <c r="F18" s="17" t="s">
-        <v>7</v>
-      </c>
-      <c r="G18" s="18" t="s">
+      <c r="G18" s="17" t="s">
+        <v>7</v>
+      </c>
+      <c r="H18" s="18" t="s">
         <v>71</v>
       </c>
-      <c r="H18" s="19" t="s">
-        <v>36</v>
-      </c>
-      <c r="I18" s="14" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="19" spans="1:9" s="5" customFormat="1" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="I18" s="19" t="s">
+        <v>36</v>
+      </c>
+      <c r="J18" s="14" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" s="5" customFormat="1" ht="15.6" x14ac:dyDescent="0.35">
       <c r="A19" s="14">
         <v>37</v>
       </c>
       <c r="B19" s="14">
         <v>18</v>
       </c>
-      <c r="C19" s="14" t="s">
-        <v>8</v>
-      </c>
-      <c r="D19" s="15" t="s">
+      <c r="C19" s="14">
+        <v>0</v>
+      </c>
+      <c r="D19" s="14" t="s">
+        <v>8</v>
+      </c>
+      <c r="E19" s="15" t="s">
         <v>70</v>
       </c>
-      <c r="E19" s="16" t="s">
+      <c r="F19" s="16" t="s">
         <v>127</v>
       </c>
-      <c r="F19" s="17" t="s">
-        <v>7</v>
-      </c>
-      <c r="G19" s="18" t="s">
+      <c r="G19" s="17" t="s">
+        <v>7</v>
+      </c>
+      <c r="H19" s="18" t="s">
         <v>72</v>
       </c>
-      <c r="H19" s="19" t="s">
-        <v>36</v>
-      </c>
-      <c r="I19" s="14" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="20" spans="1:9" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="I19" s="19" t="s">
+        <v>36</v>
+      </c>
+      <c r="J19" s="14" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" ht="15.6" x14ac:dyDescent="0.35">
       <c r="A20" s="14">
         <v>38</v>
       </c>
       <c r="B20" s="14">
         <v>19</v>
       </c>
-      <c r="C20" s="14" t="s">
-        <v>8</v>
-      </c>
-      <c r="D20" s="15" t="s">
+      <c r="C20" s="14">
+        <v>0</v>
+      </c>
+      <c r="D20" s="14" t="s">
+        <v>8</v>
+      </c>
+      <c r="E20" s="15" t="s">
         <v>115</v>
       </c>
-      <c r="E20" s="16" t="s">
+      <c r="F20" s="16" t="s">
         <v>127</v>
       </c>
-      <c r="F20" s="17" t="s">
-        <v>7</v>
-      </c>
-      <c r="G20" s="18" t="s">
+      <c r="G20" s="17" t="s">
+        <v>7</v>
+      </c>
+      <c r="H20" s="18" t="s">
         <v>73</v>
       </c>
-      <c r="H20" s="19" t="s">
-        <v>36</v>
-      </c>
-      <c r="I20" s="14" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="21" spans="1:9" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="I20" s="19" t="s">
+        <v>36</v>
+      </c>
+      <c r="J20" s="14" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" ht="15.6" x14ac:dyDescent="0.35">
       <c r="A21" s="14">
         <v>39</v>
       </c>
       <c r="B21" s="14">
         <v>20</v>
       </c>
-      <c r="C21" s="14" t="s">
-        <v>8</v>
-      </c>
-      <c r="D21" s="15" t="s">
+      <c r="C21" s="14">
+        <v>0</v>
+      </c>
+      <c r="D21" s="14" t="s">
+        <v>8</v>
+      </c>
+      <c r="E21" s="15" t="s">
         <v>116</v>
       </c>
-      <c r="E21" s="16" t="s">
+      <c r="F21" s="16" t="s">
         <v>127</v>
       </c>
-      <c r="F21" s="17" t="s">
-        <v>7</v>
-      </c>
-      <c r="G21" s="18" t="s">
+      <c r="G21" s="17" t="s">
+        <v>7</v>
+      </c>
+      <c r="H21" s="18" t="s">
         <v>74</v>
       </c>
-      <c r="H21" s="19" t="s">
-        <v>36</v>
-      </c>
-      <c r="I21" s="14" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="22" spans="1:9" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="I21" s="19" t="s">
+        <v>36</v>
+      </c>
+      <c r="J21" s="14" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" ht="15.6" x14ac:dyDescent="0.35">
       <c r="A22" s="14">
         <v>40</v>
       </c>
       <c r="B22" s="14">
         <v>21</v>
       </c>
-      <c r="C22" s="14" t="s">
-        <v>8</v>
-      </c>
-      <c r="D22" s="15" t="s">
+      <c r="C22" s="14">
+        <v>0</v>
+      </c>
+      <c r="D22" s="14" t="s">
+        <v>8</v>
+      </c>
+      <c r="E22" s="15" t="s">
         <v>117</v>
       </c>
-      <c r="E22" s="16" t="s">
+      <c r="F22" s="16" t="s">
         <v>127</v>
       </c>
-      <c r="F22" s="17" t="s">
-        <v>7</v>
-      </c>
-      <c r="G22" s="18" t="s">
+      <c r="G22" s="17" t="s">
+        <v>7</v>
+      </c>
+      <c r="H22" s="18" t="s">
         <v>75</v>
       </c>
-      <c r="H22" s="19" t="s">
-        <v>36</v>
-      </c>
-      <c r="I22" s="14" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="23" spans="1:9" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="I22" s="19" t="s">
+        <v>36</v>
+      </c>
+      <c r="J22" s="14" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" ht="15.6" x14ac:dyDescent="0.35">
       <c r="A23" s="14">
         <v>41</v>
       </c>
       <c r="B23" s="14">
         <v>22</v>
       </c>
-      <c r="C23" s="14" t="s">
-        <v>8</v>
-      </c>
-      <c r="D23" s="15" t="s">
+      <c r="C23" s="14">
+        <v>0</v>
+      </c>
+      <c r="D23" s="14" t="s">
+        <v>8</v>
+      </c>
+      <c r="E23" s="15" t="s">
         <v>76</v>
       </c>
-      <c r="E23" s="16" t="s">
+      <c r="F23" s="16" t="s">
         <v>127</v>
       </c>
-      <c r="F23" s="17" t="s">
-        <v>7</v>
-      </c>
-      <c r="G23" s="18" t="s">
+      <c r="G23" s="17" t="s">
+        <v>7</v>
+      </c>
+      <c r="H23" s="18" t="s">
         <v>77</v>
       </c>
-      <c r="H23" s="19" t="s">
-        <v>36</v>
-      </c>
-      <c r="I23" s="14" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="24" spans="1:9" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="I23" s="19" t="s">
+        <v>36</v>
+      </c>
+      <c r="J23" s="14" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10" ht="15.6" x14ac:dyDescent="0.35">
       <c r="A24" s="14">
         <v>42</v>
       </c>
       <c r="B24" s="14">
         <v>23</v>
       </c>
-      <c r="C24" s="14" t="s">
-        <v>8</v>
-      </c>
-      <c r="D24" s="15" t="s">
+      <c r="C24" s="14">
+        <v>0</v>
+      </c>
+      <c r="D24" s="14" t="s">
+        <v>8</v>
+      </c>
+      <c r="E24" s="15" t="s">
         <v>118</v>
       </c>
-      <c r="E24" s="16" t="s">
+      <c r="F24" s="16" t="s">
         <v>127</v>
       </c>
-      <c r="F24" s="17" t="s">
-        <v>7</v>
-      </c>
-      <c r="G24" s="18" t="s">
+      <c r="G24" s="17" t="s">
+        <v>7</v>
+      </c>
+      <c r="H24" s="18" t="s">
         <v>78</v>
       </c>
-      <c r="H24" s="19" t="s">
-        <v>36</v>
-      </c>
-      <c r="I24" s="14" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="25" spans="1:9" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="I24" s="19" t="s">
+        <v>36</v>
+      </c>
+      <c r="J24" s="14" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10" ht="15.6" x14ac:dyDescent="0.35">
       <c r="A25" s="14">
         <v>44</v>
       </c>
       <c r="B25" s="14">
         <v>24</v>
       </c>
-      <c r="C25" s="14" t="s">
-        <v>8</v>
-      </c>
-      <c r="D25" s="15" t="s">
+      <c r="C25" s="14">
+        <v>0</v>
+      </c>
+      <c r="D25" s="14" t="s">
+        <v>8</v>
+      </c>
+      <c r="E25" s="15" t="s">
         <v>80</v>
       </c>
-      <c r="E25" s="16" t="s">
+      <c r="F25" s="16" t="s">
         <v>127</v>
       </c>
-      <c r="F25" s="17" t="s">
-        <v>7</v>
-      </c>
-      <c r="G25" s="18" t="s">
+      <c r="G25" s="17" t="s">
+        <v>7</v>
+      </c>
+      <c r="H25" s="18" t="s">
         <v>81</v>
       </c>
-      <c r="H25" s="19" t="s">
+      <c r="I25" s="19" t="s">
         <v>123</v>
       </c>
-      <c r="I25" s="14" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="26" spans="1:9" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="J25" s="14" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10" ht="15.6" x14ac:dyDescent="0.35">
       <c r="A26" s="14">
         <v>17</v>
       </c>
       <c r="B26" s="14">
         <v>25</v>
       </c>
-      <c r="C26" s="14" t="s">
-        <v>8</v>
-      </c>
-      <c r="D26" s="15" t="s">
+      <c r="C26" s="14">
+        <v>1</v>
+      </c>
+      <c r="D26" s="14" t="s">
+        <v>8</v>
+      </c>
+      <c r="E26" s="15" t="s">
         <v>108</v>
       </c>
-      <c r="E26" s="16" t="s">
-        <v>128</v>
-      </c>
-      <c r="F26" s="17" t="s">
-        <v>7</v>
-      </c>
-      <c r="G26" s="18" t="s">
+      <c r="F26" s="16" t="s">
+        <v>128</v>
+      </c>
+      <c r="G26" s="17" t="s">
+        <v>7</v>
+      </c>
+      <c r="H26" s="18" t="s">
         <v>38</v>
       </c>
-      <c r="H26" s="19" t="s">
-        <v>36</v>
-      </c>
-      <c r="I26" s="14" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="27" spans="1:9" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="I26" s="19" t="s">
+        <v>36</v>
+      </c>
+      <c r="J26" s="14" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10" ht="15.6" x14ac:dyDescent="0.35">
       <c r="A27" s="14">
         <v>18</v>
       </c>
       <c r="B27" s="14">
         <v>26</v>
       </c>
-      <c r="C27" s="14" t="s">
-        <v>8</v>
-      </c>
-      <c r="D27" s="15" t="s">
+      <c r="C27" s="14">
+        <v>1</v>
+      </c>
+      <c r="D27" s="14" t="s">
+        <v>8</v>
+      </c>
+      <c r="E27" s="15" t="s">
         <v>40</v>
       </c>
-      <c r="E27" s="16" t="s">
-        <v>128</v>
-      </c>
-      <c r="F27" s="17" t="s">
-        <v>7</v>
-      </c>
-      <c r="G27" s="18" t="s">
+      <c r="F27" s="16" t="s">
+        <v>128</v>
+      </c>
+      <c r="G27" s="17" t="s">
+        <v>7</v>
+      </c>
+      <c r="H27" s="18" t="s">
         <v>39</v>
       </c>
-      <c r="H27" s="19" t="s">
-        <v>36</v>
-      </c>
-      <c r="I27" s="14" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="28" spans="1:9" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="I27" s="19" t="s">
+        <v>36</v>
+      </c>
+      <c r="J27" s="14" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10" ht="15.6" x14ac:dyDescent="0.35">
       <c r="A28" s="14">
         <v>19</v>
       </c>
       <c r="B28" s="14">
         <v>27</v>
       </c>
-      <c r="C28" s="14" t="s">
-        <v>8</v>
-      </c>
-      <c r="D28" s="15" t="s">
+      <c r="C28" s="14">
+        <v>1</v>
+      </c>
+      <c r="D28" s="14" t="s">
+        <v>8</v>
+      </c>
+      <c r="E28" s="15" t="s">
         <v>42</v>
       </c>
-      <c r="E28" s="16" t="s">
-        <v>128</v>
-      </c>
-      <c r="F28" s="17" t="s">
-        <v>7</v>
-      </c>
-      <c r="G28" s="18" t="s">
+      <c r="F28" s="16" t="s">
+        <v>128</v>
+      </c>
+      <c r="G28" s="17" t="s">
+        <v>7</v>
+      </c>
+      <c r="H28" s="18" t="s">
         <v>41</v>
       </c>
-      <c r="H28" s="19" t="s">
-        <v>36</v>
-      </c>
-      <c r="I28" s="14" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="29" spans="1:9" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="I28" s="19" t="s">
+        <v>36</v>
+      </c>
+      <c r="J28" s="14" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10" ht="15.6" x14ac:dyDescent="0.35">
       <c r="A29" s="4">
         <v>20</v>
       </c>
       <c r="B29" s="4">
         <v>28</v>
       </c>
-      <c r="C29" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="D29" s="10" t="s">
+      <c r="C29" s="14">
+        <v>1</v>
+      </c>
+      <c r="D29" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="E29" s="10" t="s">
         <v>44</v>
       </c>
-      <c r="E29" s="20" t="s">
-        <v>128</v>
-      </c>
-      <c r="F29" s="11" t="s">
-        <v>7</v>
-      </c>
-      <c r="G29" s="6" t="s">
+      <c r="F29" s="20" t="s">
+        <v>128</v>
+      </c>
+      <c r="G29" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="H29" s="6" t="s">
         <v>43</v>
       </c>
-      <c r="H29" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="I29" s="4" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="30" spans="1:9" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="I29" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="J29" s="4" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10" ht="15.6" x14ac:dyDescent="0.35">
       <c r="A30" s="4">
         <v>21</v>
       </c>
       <c r="B30" s="4">
         <v>29</v>
       </c>
-      <c r="C30" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="D30" s="10" t="s">
+      <c r="C30" s="4">
+        <v>1</v>
+      </c>
+      <c r="D30" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="E30" s="10" t="s">
         <v>47</v>
       </c>
-      <c r="E30" s="20" t="s">
-        <v>128</v>
-      </c>
-      <c r="F30" s="11" t="s">
-        <v>7</v>
-      </c>
-      <c r="G30" s="6" t="s">
+      <c r="F30" s="20" t="s">
+        <v>128</v>
+      </c>
+      <c r="G30" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="H30" s="6" t="s">
         <v>45</v>
       </c>
-      <c r="H30" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="I30" s="4" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="31" spans="1:9" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="I30" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="J30" s="4" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10" ht="15.6" x14ac:dyDescent="0.35">
       <c r="A31" s="4">
         <v>22</v>
       </c>
       <c r="B31" s="4">
         <v>30</v>
       </c>
-      <c r="C31" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="D31" s="10" t="s">
-        <v>46</v>
-      </c>
-      <c r="E31" s="20" t="s">
-        <v>128</v>
-      </c>
-      <c r="F31" s="11" t="s">
-        <v>7</v>
-      </c>
-      <c r="G31" s="6" t="s">
+      <c r="C31" s="4">
+        <v>1</v>
+      </c>
+      <c r="D31" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="E31" s="10" t="s">
+        <v>133</v>
+      </c>
+      <c r="F31" s="20" t="s">
+        <v>128</v>
+      </c>
+      <c r="G31" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="H31" s="6" t="s">
         <v>49</v>
       </c>
-      <c r="H31" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="I31" s="4" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="32" spans="1:9" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="I31" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="J31" s="4" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10" ht="15.6" x14ac:dyDescent="0.35">
       <c r="A32" s="4">
         <v>23</v>
       </c>
       <c r="B32" s="4">
         <v>31</v>
       </c>
-      <c r="C32" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="D32" s="10" t="s">
+      <c r="C32" s="4">
+        <v>1</v>
+      </c>
+      <c r="D32" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="E32" s="10" t="s">
         <v>48</v>
       </c>
-      <c r="E32" s="20" t="s">
-        <v>128</v>
-      </c>
-      <c r="F32" s="11" t="s">
-        <v>7</v>
-      </c>
-      <c r="G32" s="6" t="s">
+      <c r="F32" s="20" t="s">
+        <v>128</v>
+      </c>
+      <c r="G32" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="H32" s="6" t="s">
         <v>50</v>
       </c>
-      <c r="H32" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="I32" s="4" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="33" spans="1:9" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="I32" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="J32" s="4" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="33" spans="1:10" ht="15.6" x14ac:dyDescent="0.35">
       <c r="A33" s="4">
         <v>24</v>
       </c>
       <c r="B33" s="4">
         <v>32</v>
       </c>
-      <c r="C33" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="D33" s="10" t="s">
+      <c r="C33" s="4">
+        <v>1</v>
+      </c>
+      <c r="D33" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="E33" s="10" t="s">
         <v>51</v>
       </c>
-      <c r="E33" s="20" t="s">
-        <v>128</v>
-      </c>
-      <c r="F33" s="11" t="s">
-        <v>7</v>
-      </c>
-      <c r="G33" s="6" t="s">
+      <c r="F33" s="20" t="s">
+        <v>128</v>
+      </c>
+      <c r="G33" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="H33" s="6" t="s">
         <v>52</v>
       </c>
-      <c r="H33" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="I33" s="4" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="34" spans="1:9" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="I33" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="J33" s="4" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="34" spans="1:10" ht="15.6" x14ac:dyDescent="0.35">
       <c r="A34" s="4">
         <v>25</v>
       </c>
       <c r="B34" s="4">
         <v>33</v>
       </c>
-      <c r="C34" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="D34" s="10" t="s">
+      <c r="C34" s="4">
+        <v>1</v>
+      </c>
+      <c r="D34" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="E34" s="10" t="s">
         <v>53</v>
       </c>
-      <c r="E34" s="20" t="s">
-        <v>128</v>
-      </c>
-      <c r="F34" s="11" t="s">
-        <v>7</v>
-      </c>
-      <c r="G34" s="6" t="s">
+      <c r="F34" s="20" t="s">
+        <v>128</v>
+      </c>
+      <c r="G34" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="H34" s="6" t="s">
         <v>56</v>
       </c>
-      <c r="H34" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="I34" s="4" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="35" spans="1:9" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="I34" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="J34" s="4" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="35" spans="1:10" ht="15.6" x14ac:dyDescent="0.35">
       <c r="A35" s="4">
         <v>26</v>
       </c>
       <c r="B35" s="4">
         <v>34</v>
       </c>
-      <c r="C35" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="D35" s="10" t="s">
+      <c r="C35" s="4">
+        <v>1</v>
+      </c>
+      <c r="D35" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="E35" s="10" t="s">
         <v>54</v>
       </c>
-      <c r="E35" s="20" t="s">
-        <v>128</v>
-      </c>
-      <c r="F35" s="11" t="s">
-        <v>7</v>
-      </c>
-      <c r="G35" s="6" t="s">
+      <c r="F35" s="20" t="s">
+        <v>128</v>
+      </c>
+      <c r="G35" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="H35" s="6" t="s">
         <v>57</v>
       </c>
-      <c r="H35" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="I35" s="4" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="36" spans="1:9" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="I35" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="J35" s="4" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="36" spans="1:10" ht="15.6" x14ac:dyDescent="0.35">
       <c r="A36" s="4">
         <v>27</v>
       </c>
       <c r="B36" s="4">
         <v>35</v>
       </c>
-      <c r="C36" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="D36" s="10" t="s">
+      <c r="C36" s="4">
+        <v>1</v>
+      </c>
+      <c r="D36" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="E36" s="10" t="s">
         <v>55</v>
       </c>
-      <c r="E36" s="20" t="s">
-        <v>128</v>
-      </c>
-      <c r="F36" s="11" t="s">
-        <v>7</v>
-      </c>
-      <c r="G36" s="6" t="s">
+      <c r="F36" s="20" t="s">
+        <v>128</v>
+      </c>
+      <c r="G36" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="H36" s="6" t="s">
         <v>58</v>
       </c>
-      <c r="H36" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="I36" s="4" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="37" spans="1:9" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="I36" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="J36" s="4" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="37" spans="1:10" ht="15.6" x14ac:dyDescent="0.35">
       <c r="A37" s="4">
         <v>28</v>
       </c>
       <c r="B37" s="4">
         <v>36</v>
       </c>
-      <c r="C37" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="D37" s="10" t="s">
+      <c r="C37" s="4">
+        <v>1</v>
+      </c>
+      <c r="D37" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="E37" s="10" t="s">
         <v>59</v>
       </c>
-      <c r="E37" s="20" t="s">
-        <v>128</v>
-      </c>
-      <c r="F37" s="11" t="s">
-        <v>7</v>
-      </c>
-      <c r="G37" s="6" t="s">
+      <c r="F37" s="20" t="s">
+        <v>128</v>
+      </c>
+      <c r="G37" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="H37" s="6" t="s">
         <v>60</v>
       </c>
-      <c r="H37" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="I37" s="4" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="38" spans="1:9" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="I37" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="J37" s="4" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="38" spans="1:10" ht="15.6" x14ac:dyDescent="0.35">
       <c r="A38" s="4">
         <v>29</v>
       </c>
       <c r="B38" s="4">
         <v>37</v>
       </c>
-      <c r="C38" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="D38" s="10" t="s">
+      <c r="C38" s="4">
+        <v>1</v>
+      </c>
+      <c r="D38" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E38" s="10" t="s">
         <v>109</v>
       </c>
-      <c r="E38" s="13" t="s">
-        <v>128</v>
-      </c>
-      <c r="F38" s="11" t="s">
-        <v>7</v>
-      </c>
-      <c r="G38" s="6" t="s">
+      <c r="F38" s="13" t="s">
+        <v>128</v>
+      </c>
+      <c r="G38" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="H38" s="6" t="s">
         <v>61</v>
       </c>
-      <c r="H38" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="I38" s="4" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="39" spans="1:9" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="I38" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="J38" s="4" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="39" spans="1:10" ht="15.6" x14ac:dyDescent="0.35">
       <c r="A39" s="4">
         <v>30</v>
       </c>
       <c r="B39" s="4">
         <v>38</v>
       </c>
-      <c r="C39" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="D39" s="10" t="s">
+      <c r="C39" s="4">
+        <v>1</v>
+      </c>
+      <c r="D39" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E39" s="10" t="s">
         <v>62</v>
       </c>
-      <c r="E39" s="13" t="s">
-        <v>128</v>
-      </c>
-      <c r="F39" s="11" t="s">
-        <v>7</v>
-      </c>
-      <c r="G39" s="6" t="s">
+      <c r="F39" s="13" t="s">
+        <v>128</v>
+      </c>
+      <c r="G39" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="H39" s="6" t="s">
         <v>63</v>
       </c>
-      <c r="H39" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="I39" s="4" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="40" spans="1:9" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="I39" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="J39" s="4" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="40" spans="1:10" ht="15.6" x14ac:dyDescent="0.35">
       <c r="A40" s="4">
         <v>31</v>
       </c>
       <c r="B40" s="4">
         <v>39</v>
       </c>
-      <c r="C40" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="D40" s="10" t="s">
+      <c r="C40" s="4">
+        <v>1</v>
+      </c>
+      <c r="D40" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E40" s="10" t="s">
         <v>110</v>
       </c>
-      <c r="E40" s="13" t="s">
-        <v>128</v>
-      </c>
-      <c r="F40" s="11" t="s">
-        <v>7</v>
-      </c>
-      <c r="G40" s="6" t="s">
+      <c r="F40" s="13" t="s">
+        <v>128</v>
+      </c>
+      <c r="G40" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="H40" s="6" t="s">
         <v>64</v>
       </c>
-      <c r="H40" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="I40" s="4" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="41" spans="1:9" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="I40" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="J40" s="4" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="41" spans="1:10" ht="15.6" x14ac:dyDescent="0.35">
       <c r="A41" s="4">
         <v>32</v>
       </c>
       <c r="B41" s="4">
         <v>40</v>
       </c>
-      <c r="C41" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="D41" s="10" t="s">
+      <c r="C41" s="14">
+        <v>1</v>
+      </c>
+      <c r="D41" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E41" s="10" t="s">
         <v>111</v>
       </c>
-      <c r="E41" s="13" t="s">
-        <v>128</v>
-      </c>
-      <c r="F41" s="11" t="s">
-        <v>7</v>
-      </c>
-      <c r="G41" s="6" t="s">
+      <c r="F41" s="13" t="s">
+        <v>128</v>
+      </c>
+      <c r="G41" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="H41" s="6" t="s">
         <v>65</v>
       </c>
-      <c r="H41" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="I41" s="4" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="42" spans="1:9" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="I41" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="J41" s="4" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="42" spans="1:10" ht="15.6" x14ac:dyDescent="0.35">
       <c r="A42" s="4">
         <v>33</v>
       </c>
       <c r="B42" s="4">
         <v>41</v>
       </c>
-      <c r="C42" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="D42" s="10" t="s">
+      <c r="C42" s="4">
+        <v>1</v>
+      </c>
+      <c r="D42" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E42" s="10" t="s">
         <v>112</v>
       </c>
-      <c r="E42" s="13" t="s">
-        <v>128</v>
-      </c>
-      <c r="F42" s="11" t="s">
-        <v>7</v>
-      </c>
-      <c r="G42" s="6" t="s">
+      <c r="F42" s="13" t="s">
+        <v>128</v>
+      </c>
+      <c r="G42" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="H42" s="6" t="s">
         <v>66</v>
       </c>
-      <c r="H42" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="I42" s="4" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="43" spans="1:9" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="I42" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="J42" s="4" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="43" spans="1:10" ht="15.6" x14ac:dyDescent="0.35">
       <c r="A43" s="4">
         <v>34</v>
       </c>
       <c r="B43" s="4">
         <v>42</v>
       </c>
-      <c r="C43" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="D43" s="10" t="s">
+      <c r="C43" s="4">
+        <v>1</v>
+      </c>
+      <c r="D43" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E43" s="10" t="s">
         <v>113</v>
       </c>
-      <c r="E43" s="13" t="s">
-        <v>128</v>
-      </c>
-      <c r="F43" s="11" t="s">
-        <v>7</v>
-      </c>
-      <c r="G43" s="6" t="s">
+      <c r="F43" s="13" t="s">
+        <v>128</v>
+      </c>
+      <c r="G43" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="H43" s="6" t="s">
         <v>67</v>
       </c>
-      <c r="H43" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="I43" s="4" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="44" spans="1:9" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="I43" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="J43" s="4" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="44" spans="1:10" ht="15.6" x14ac:dyDescent="0.35">
       <c r="A44" s="4">
         <v>43</v>
       </c>
       <c r="B44" s="4">
         <v>43</v>
       </c>
-      <c r="C44" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="D44" s="10" t="s">
+      <c r="C44" s="4">
+        <v>1</v>
+      </c>
+      <c r="D44" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E44" s="10" t="s">
         <v>119</v>
       </c>
-      <c r="E44" s="13" t="s">
-        <v>128</v>
-      </c>
-      <c r="F44" s="11" t="s">
-        <v>7</v>
-      </c>
-      <c r="G44" s="6" t="s">
+      <c r="F44" s="13" t="s">
+        <v>128</v>
+      </c>
+      <c r="G44" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="H44" s="6" t="s">
         <v>79</v>
       </c>
-      <c r="H44" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="I44" s="4" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="45" spans="1:9" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="I44" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="J44" s="4" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="45" spans="1:10" ht="15.6" x14ac:dyDescent="0.35">
       <c r="A45" s="4">
         <v>45</v>
       </c>
       <c r="B45" s="4">
         <v>44</v>
       </c>
-      <c r="C45" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="D45" s="10" t="s">
+      <c r="C45" s="4">
+        <v>1</v>
+      </c>
+      <c r="D45" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="E45" s="10" t="s">
         <v>120</v>
       </c>
-      <c r="E45" s="13" t="s">
-        <v>128</v>
-      </c>
-      <c r="F45" s="11" t="s">
-        <v>7</v>
-      </c>
-      <c r="G45" s="6" t="s">
+      <c r="F45" s="13" t="s">
+        <v>128</v>
+      </c>
+      <c r="G45" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="H45" s="6" t="s">
         <v>91</v>
       </c>
-      <c r="H45" s="7" t="s">
+      <c r="I45" s="7" t="s">
         <v>123</v>
       </c>
-      <c r="I45" s="4" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="46" spans="1:9" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="J45" s="4" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="46" spans="1:10" ht="15.6" x14ac:dyDescent="0.35">
       <c r="A46" s="4">
         <v>46</v>
       </c>
       <c r="B46" s="4">
         <v>45</v>
       </c>
-      <c r="C46" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="D46" s="10" t="s">
+      <c r="C46" s="14">
+        <v>1</v>
+      </c>
+      <c r="D46" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E46" s="10" t="s">
         <v>82</v>
       </c>
-      <c r="E46" s="13" t="s">
-        <v>128</v>
-      </c>
-      <c r="F46" s="11" t="s">
-        <v>7</v>
-      </c>
-      <c r="G46" s="6" t="s">
+      <c r="F46" s="13" t="s">
+        <v>128</v>
+      </c>
+      <c r="G46" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="H46" s="6" t="s">
         <v>92</v>
       </c>
-      <c r="H46" s="7" t="s">
+      <c r="I46" s="7" t="s">
         <v>122</v>
       </c>
-      <c r="I46" s="4" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="47" spans="1:9" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="J46" s="4" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="47" spans="1:10" ht="15.6" x14ac:dyDescent="0.35">
       <c r="A47" s="4">
         <v>47</v>
       </c>
       <c r="B47" s="4">
         <v>46</v>
       </c>
-      <c r="C47" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="D47" s="10" t="s">
+      <c r="C47" s="4">
+        <v>1</v>
+      </c>
+      <c r="D47" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E47" s="10" t="s">
         <v>83</v>
       </c>
-      <c r="E47" s="13" t="s">
-        <v>128</v>
-      </c>
-      <c r="F47" s="11" t="s">
-        <v>7</v>
-      </c>
-      <c r="G47" s="6" t="s">
+      <c r="F47" s="13" t="s">
+        <v>128</v>
+      </c>
+      <c r="G47" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="H47" s="6" t="s">
         <v>93</v>
       </c>
-      <c r="H47" s="7" t="s">
+      <c r="I47" s="7" t="s">
         <v>122</v>
       </c>
-      <c r="I47" s="4" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="48" spans="1:9" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="J47" s="4" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="48" spans="1:10" ht="15.6" x14ac:dyDescent="0.35">
       <c r="A48" s="4">
         <v>48</v>
       </c>
       <c r="B48" s="4">
         <v>47</v>
       </c>
-      <c r="C48" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="D48" s="10" t="s">
+      <c r="C48" s="4">
+        <v>1</v>
+      </c>
+      <c r="D48" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E48" s="10" t="s">
         <v>84</v>
       </c>
-      <c r="E48" s="13" t="s">
-        <v>128</v>
-      </c>
-      <c r="F48" s="11" t="s">
-        <v>7</v>
-      </c>
-      <c r="G48" s="6" t="s">
+      <c r="F48" s="13" t="s">
+        <v>128</v>
+      </c>
+      <c r="G48" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="H48" s="6" t="s">
         <v>94</v>
       </c>
-      <c r="H48" s="7" t="s">
+      <c r="I48" s="7" t="s">
         <v>122</v>
       </c>
-      <c r="I48" s="4" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="49" spans="1:9" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="J48" s="4" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="49" spans="1:10" ht="15.6" x14ac:dyDescent="0.35">
       <c r="A49" s="4">
         <v>49</v>
       </c>
       <c r="B49" s="4">
         <v>48</v>
       </c>
-      <c r="C49" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="D49" s="10" t="s">
+      <c r="C49" s="4">
+        <v>1</v>
+      </c>
+      <c r="D49" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E49" s="10" t="s">
         <v>85</v>
       </c>
-      <c r="E49" s="13" t="s">
-        <v>128</v>
-      </c>
-      <c r="F49" s="11" t="s">
-        <v>7</v>
-      </c>
-      <c r="G49" s="6" t="s">
+      <c r="F49" s="13" t="s">
+        <v>128</v>
+      </c>
+      <c r="G49" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="H49" s="6" t="s">
         <v>95</v>
       </c>
-      <c r="H49" s="7" t="s">
+      <c r="I49" s="7" t="s">
         <v>122</v>
       </c>
-      <c r="I49" s="4" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="50" spans="1:9" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="J49" s="4" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="50" spans="1:10" ht="15.6" x14ac:dyDescent="0.35">
       <c r="A50" s="4">
         <v>50</v>
       </c>
       <c r="B50" s="4">
         <v>49</v>
       </c>
-      <c r="C50" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="D50" s="10" t="s">
+      <c r="C50" s="4">
+        <v>1</v>
+      </c>
+      <c r="D50" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E50" s="10" t="s">
         <v>86</v>
       </c>
-      <c r="E50" s="13" t="s">
-        <v>128</v>
-      </c>
-      <c r="F50" s="11" t="s">
-        <v>7</v>
-      </c>
-      <c r="G50" s="6" t="s">
+      <c r="F50" s="13" t="s">
+        <v>128</v>
+      </c>
+      <c r="G50" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="H50" s="6" t="s">
         <v>96</v>
       </c>
-      <c r="H50" s="7" t="s">
+      <c r="I50" s="7" t="s">
         <v>122</v>
       </c>
-      <c r="I50" s="4" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="51" spans="1:9" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="J50" s="4" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="51" spans="1:10" ht="15.6" x14ac:dyDescent="0.35">
       <c r="A51" s="4">
         <v>51</v>
       </c>
       <c r="B51" s="4">
         <v>50</v>
       </c>
-      <c r="C51" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="D51" s="10" t="s">
+      <c r="C51" s="4">
+        <v>1</v>
+      </c>
+      <c r="D51" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E51" s="10" t="s">
         <v>87</v>
       </c>
-      <c r="E51" s="13" t="s">
-        <v>128</v>
-      </c>
-      <c r="F51" s="11" t="s">
-        <v>7</v>
-      </c>
-      <c r="G51" s="6" t="s">
+      <c r="F51" s="13" t="s">
+        <v>128</v>
+      </c>
+      <c r="G51" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="H51" s="6" t="s">
         <v>97</v>
       </c>
-      <c r="H51" s="7" t="s">
+      <c r="I51" s="7" t="s">
         <v>122</v>
       </c>
-      <c r="I51" s="4" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="52" spans="1:9" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="J51" s="4" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="52" spans="1:10" ht="15.6" x14ac:dyDescent="0.35">
       <c r="A52" s="4">
         <v>52</v>
       </c>
       <c r="B52" s="4">
         <v>51</v>
       </c>
-      <c r="C52" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="D52" s="10" t="s">
+      <c r="C52" s="14">
+        <v>1</v>
+      </c>
+      <c r="D52" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E52" s="10" t="s">
         <v>88</v>
       </c>
-      <c r="E52" s="13" t="s">
-        <v>128</v>
-      </c>
-      <c r="F52" s="11" t="s">
-        <v>7</v>
-      </c>
-      <c r="G52" s="6" t="s">
+      <c r="F52" s="13" t="s">
+        <v>128</v>
+      </c>
+      <c r="G52" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="H52" s="6" t="s">
         <v>98</v>
       </c>
-      <c r="H52" s="7" t="s">
+      <c r="I52" s="7" t="s">
         <v>122</v>
       </c>
-      <c r="I52" s="4" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="53" spans="1:9" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="J52" s="4" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="53" spans="1:10" ht="15.6" x14ac:dyDescent="0.35">
       <c r="A53" s="4">
         <v>53</v>
       </c>
       <c r="B53" s="4">
         <v>52</v>
       </c>
-      <c r="C53" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="D53" s="10" t="s">
+      <c r="C53" s="4">
+        <v>1</v>
+      </c>
+      <c r="D53" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E53" s="10" t="s">
         <v>89</v>
       </c>
-      <c r="E53" s="13" t="s">
-        <v>128</v>
-      </c>
-      <c r="F53" s="11" t="s">
-        <v>7</v>
-      </c>
-      <c r="G53" s="6" t="s">
+      <c r="F53" s="13" t="s">
+        <v>128</v>
+      </c>
+      <c r="G53" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="H53" s="6" t="s">
         <v>99</v>
       </c>
-      <c r="H53" s="7" t="s">
+      <c r="I53" s="7" t="s">
         <v>122</v>
       </c>
-      <c r="I53" s="4" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="54" spans="1:9" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="J53" s="4" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="54" spans="1:10" ht="15.6" x14ac:dyDescent="0.35">
       <c r="A54" s="4">
         <v>54</v>
       </c>
       <c r="B54" s="4">
         <v>53</v>
       </c>
-      <c r="C54" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="D54" s="10" t="s">
+      <c r="C54" s="4">
+        <v>1</v>
+      </c>
+      <c r="D54" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E54" s="10" t="s">
         <v>90</v>
       </c>
-      <c r="E54" s="13" t="s">
-        <v>128</v>
-      </c>
-      <c r="F54" s="11" t="s">
-        <v>7</v>
-      </c>
-      <c r="G54" s="6" t="s">
+      <c r="F54" s="13" t="s">
+        <v>128</v>
+      </c>
+      <c r="G54" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="H54" s="6" t="s">
         <v>100</v>
       </c>
-      <c r="H54" s="7" t="s">
+      <c r="I54" s="7" t="s">
         <v>122</v>
       </c>
-      <c r="I54" s="4" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="55" spans="1:9" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="J54" s="4" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="55" spans="1:10" ht="15.6" x14ac:dyDescent="0.35">
       <c r="A55" s="4">
         <v>55</v>
       </c>
       <c r="B55" s="4">
         <v>54</v>
       </c>
-      <c r="C55" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="D55" s="10" t="s">
+      <c r="C55" s="4">
+        <v>1</v>
+      </c>
+      <c r="D55" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E55" s="10" t="s">
         <v>121</v>
       </c>
-      <c r="E55" s="13" t="s">
-        <v>128</v>
-      </c>
-      <c r="F55" s="11" t="s">
-        <v>7</v>
-      </c>
-      <c r="G55" s="6" t="s">
+      <c r="F55" s="13" t="s">
+        <v>128</v>
+      </c>
+      <c r="G55" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="H55" s="6" t="s">
         <v>102</v>
       </c>
-      <c r="H55" s="7" t="s">
+      <c r="I55" s="7" t="s">
         <v>122</v>
       </c>
-      <c r="I55" s="4" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="56" spans="1:9" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="J55" s="4" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="56" spans="1:10" ht="15.6" x14ac:dyDescent="0.35">
       <c r="A56" s="4">
         <v>56</v>
       </c>
       <c r="B56" s="4">
         <v>55</v>
       </c>
-      <c r="C56" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="D56" s="10" t="s">
+      <c r="C56" s="4">
+        <v>1</v>
+      </c>
+      <c r="D56" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E56" s="10" t="s">
         <v>101</v>
       </c>
-      <c r="E56" s="13" t="s">
-        <v>128</v>
-      </c>
-      <c r="F56" s="11" t="s">
-        <v>7</v>
-      </c>
-      <c r="G56" s="6" t="s">
+      <c r="F56" s="13" t="s">
+        <v>128</v>
+      </c>
+      <c r="G56" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="H56" s="6" t="s">
         <v>103</v>
       </c>
-      <c r="H56" s="7" t="s">
+      <c r="I56" s="7" t="s">
         <v>122</v>
       </c>
-      <c r="I56" s="4" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="57" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="J56" s="4" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="57" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A57" s="8"/>
       <c r="B57" s="8"/>
       <c r="C57" s="8"/>
@@ -4199,39 +4411,1255 @@
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
       <c r="H57" s="8"/>
+      <c r="I57" s="8"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="G2" r:id="rId1"/>
-    <hyperlink ref="G4" r:id="rId2"/>
-    <hyperlink ref="G26" r:id="rId3"/>
-    <hyperlink ref="G31" r:id="rId4"/>
-    <hyperlink ref="G32" r:id="rId5"/>
-    <hyperlink ref="G33" r:id="rId6"/>
-    <hyperlink ref="G35" r:id="rId7"/>
-    <hyperlink ref="G36" r:id="rId8"/>
-    <hyperlink ref="G37" r:id="rId9"/>
-    <hyperlink ref="G17" r:id="rId10"/>
-    <hyperlink ref="G18" r:id="rId11"/>
-    <hyperlink ref="G23" r:id="rId12"/>
-    <hyperlink ref="G24" r:id="rId13"/>
-    <hyperlink ref="G44" r:id="rId14"/>
-    <hyperlink ref="G25" r:id="rId15"/>
-    <hyperlink ref="G45" r:id="rId16"/>
-    <hyperlink ref="G46" r:id="rId17"/>
-    <hyperlink ref="G47" r:id="rId18"/>
-    <hyperlink ref="G48" r:id="rId19"/>
-    <hyperlink ref="G49" r:id="rId20"/>
-    <hyperlink ref="G50" r:id="rId21"/>
-    <hyperlink ref="G51" r:id="rId22"/>
-    <hyperlink ref="G52" r:id="rId23"/>
-    <hyperlink ref="G53" r:id="rId24"/>
-    <hyperlink ref="G54" r:id="rId25"/>
-    <hyperlink ref="G55" r:id="rId26"/>
-    <hyperlink ref="G56" r:id="rId27"/>
+    <hyperlink ref="H2" r:id="rId1"/>
+    <hyperlink ref="H4" r:id="rId2"/>
+    <hyperlink ref="H26" r:id="rId3"/>
+    <hyperlink ref="H31" r:id="rId4"/>
+    <hyperlink ref="H32" r:id="rId5"/>
+    <hyperlink ref="H33" r:id="rId6"/>
+    <hyperlink ref="H35" r:id="rId7"/>
+    <hyperlink ref="H36" r:id="rId8"/>
+    <hyperlink ref="H37" r:id="rId9"/>
+    <hyperlink ref="H17" r:id="rId10"/>
+    <hyperlink ref="H18" r:id="rId11"/>
+    <hyperlink ref="H23" r:id="rId12"/>
+    <hyperlink ref="H24" r:id="rId13"/>
+    <hyperlink ref="H44" r:id="rId14"/>
+    <hyperlink ref="H25" r:id="rId15"/>
+    <hyperlink ref="H45" r:id="rId16"/>
+    <hyperlink ref="H46" r:id="rId17"/>
+    <hyperlink ref="H47" r:id="rId18"/>
+    <hyperlink ref="H48" r:id="rId19"/>
+    <hyperlink ref="H49" r:id="rId20"/>
+    <hyperlink ref="H50" r:id="rId21"/>
+    <hyperlink ref="H51" r:id="rId22"/>
+    <hyperlink ref="H52" r:id="rId23"/>
+    <hyperlink ref="H53" r:id="rId24"/>
+    <hyperlink ref="H54" r:id="rId25"/>
+    <hyperlink ref="H55" r:id="rId26"/>
+    <hyperlink ref="H56" r:id="rId27"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId28"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:J57"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="C25" sqref="C25"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="4" max="4" width="11.6640625" customWidth="1"/>
+    <col min="5" max="6" width="27" customWidth="1"/>
+    <col min="8" max="8" width="63.44140625" customWidth="1"/>
+    <col min="9" max="9" width="20.21875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10" s="5" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E1" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="F1" s="12" t="s">
+        <v>129</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="J1" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" s="5" customFormat="1" ht="15.6" x14ac:dyDescent="0.35">
+      <c r="A2" s="14">
+        <v>1</v>
+      </c>
+      <c r="B2" s="14">
+        <v>1</v>
+      </c>
+      <c r="C2" s="14">
+        <v>0</v>
+      </c>
+      <c r="D2" s="14" t="s">
+        <v>8</v>
+      </c>
+      <c r="E2" s="15" t="s">
+        <v>104</v>
+      </c>
+      <c r="F2" s="16" t="s">
+        <v>125</v>
+      </c>
+      <c r="G2" s="17" t="s">
+        <v>7</v>
+      </c>
+      <c r="H2" s="18" t="s">
+        <v>12</v>
+      </c>
+      <c r="I2" s="19" t="s">
+        <v>10</v>
+      </c>
+      <c r="J2" s="14" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" s="5" customFormat="1" ht="15.6" x14ac:dyDescent="0.35">
+      <c r="A3" s="14">
+        <v>2</v>
+      </c>
+      <c r="B3" s="14">
+        <v>2</v>
+      </c>
+      <c r="C3" s="14">
+        <v>0</v>
+      </c>
+      <c r="D3" s="14" t="s">
+        <v>8</v>
+      </c>
+      <c r="E3" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="F3" s="16" t="s">
+        <v>125</v>
+      </c>
+      <c r="G3" s="17" t="s">
+        <v>7</v>
+      </c>
+      <c r="H3" s="18" t="s">
+        <v>14</v>
+      </c>
+      <c r="I3" s="19" t="s">
+        <v>10</v>
+      </c>
+      <c r="J3" s="14" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" ht="15.6" x14ac:dyDescent="0.35">
+      <c r="A4" s="14">
+        <v>3</v>
+      </c>
+      <c r="B4" s="14">
+        <v>3</v>
+      </c>
+      <c r="C4" s="14">
+        <v>0</v>
+      </c>
+      <c r="D4" s="14" t="s">
+        <v>8</v>
+      </c>
+      <c r="E4" s="15" t="s">
+        <v>15</v>
+      </c>
+      <c r="F4" s="16" t="s">
+        <v>125</v>
+      </c>
+      <c r="G4" s="17" t="s">
+        <v>7</v>
+      </c>
+      <c r="H4" s="18" t="s">
+        <v>16</v>
+      </c>
+      <c r="I4" s="19" t="s">
+        <v>10</v>
+      </c>
+      <c r="J4" s="14" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" ht="15.6" x14ac:dyDescent="0.35">
+      <c r="A5" s="14">
+        <v>4</v>
+      </c>
+      <c r="B5" s="14">
+        <v>4</v>
+      </c>
+      <c r="C5" s="14">
+        <v>0</v>
+      </c>
+      <c r="D5" s="14" t="s">
+        <v>8</v>
+      </c>
+      <c r="E5" s="15" t="s">
+        <v>17</v>
+      </c>
+      <c r="F5" s="16" t="s">
+        <v>125</v>
+      </c>
+      <c r="G5" s="17" t="s">
+        <v>7</v>
+      </c>
+      <c r="H5" s="18" t="s">
+        <v>18</v>
+      </c>
+      <c r="I5" s="19" t="s">
+        <v>10</v>
+      </c>
+      <c r="J5" s="14" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" ht="15.6" x14ac:dyDescent="0.35">
+      <c r="A6" s="14">
+        <v>5</v>
+      </c>
+      <c r="B6" s="14">
+        <v>5</v>
+      </c>
+      <c r="C6" s="14">
+        <v>0</v>
+      </c>
+      <c r="D6" s="14" t="s">
+        <v>8</v>
+      </c>
+      <c r="E6" s="15" t="s">
+        <v>19</v>
+      </c>
+      <c r="F6" s="16" t="s">
+        <v>125</v>
+      </c>
+      <c r="G6" s="17" t="s">
+        <v>7</v>
+      </c>
+      <c r="H6" s="18" t="s">
+        <v>20</v>
+      </c>
+      <c r="I6" s="19" t="s">
+        <v>10</v>
+      </c>
+      <c r="J6" s="14" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" ht="15.6" x14ac:dyDescent="0.35">
+      <c r="A7" s="14">
+        <v>6</v>
+      </c>
+      <c r="B7" s="14">
+        <v>6</v>
+      </c>
+      <c r="C7" s="14">
+        <v>0</v>
+      </c>
+      <c r="D7" s="14" t="s">
+        <v>124</v>
+      </c>
+      <c r="E7" s="15" t="s">
+        <v>21</v>
+      </c>
+      <c r="F7" s="16" t="s">
+        <v>125</v>
+      </c>
+      <c r="G7" s="17" t="s">
+        <v>7</v>
+      </c>
+      <c r="H7" s="18" t="s">
+        <v>22</v>
+      </c>
+      <c r="I7" s="19" t="s">
+        <v>10</v>
+      </c>
+      <c r="J7" s="14" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" ht="15.6" x14ac:dyDescent="0.35">
+      <c r="A8" s="14">
+        <v>7</v>
+      </c>
+      <c r="B8" s="14">
+        <v>7</v>
+      </c>
+      <c r="C8" s="14">
+        <v>0</v>
+      </c>
+      <c r="D8" s="14" t="s">
+        <v>8</v>
+      </c>
+      <c r="E8" s="15" t="s">
+        <v>24</v>
+      </c>
+      <c r="F8" s="16" t="s">
+        <v>125</v>
+      </c>
+      <c r="G8" s="17" t="s">
+        <v>7</v>
+      </c>
+      <c r="H8" s="18" t="s">
+        <v>23</v>
+      </c>
+      <c r="I8" s="19" t="s">
+        <v>10</v>
+      </c>
+      <c r="J8" s="14" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" ht="15.6" x14ac:dyDescent="0.35">
+      <c r="A9" s="14">
+        <v>8</v>
+      </c>
+      <c r="B9" s="14">
+        <v>8</v>
+      </c>
+      <c r="C9" s="14">
+        <v>0</v>
+      </c>
+      <c r="D9" s="14" t="s">
+        <v>8</v>
+      </c>
+      <c r="E9" s="15" t="s">
+        <v>25</v>
+      </c>
+      <c r="F9" s="16" t="s">
+        <v>131</v>
+      </c>
+      <c r="G9" s="17" t="s">
+        <v>7</v>
+      </c>
+      <c r="H9" s="18" t="s">
+        <v>9</v>
+      </c>
+      <c r="I9" s="19" t="s">
+        <v>10</v>
+      </c>
+      <c r="J9" s="14" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" ht="15.6" x14ac:dyDescent="0.35">
+      <c r="A10" s="14">
+        <v>9</v>
+      </c>
+      <c r="B10" s="14">
+        <v>9</v>
+      </c>
+      <c r="C10" s="14">
+        <v>0</v>
+      </c>
+      <c r="D10" s="14" t="s">
+        <v>8</v>
+      </c>
+      <c r="E10" s="15" t="s">
+        <v>26</v>
+      </c>
+      <c r="F10" s="16" t="s">
+        <v>125</v>
+      </c>
+      <c r="G10" s="17" t="s">
+        <v>7</v>
+      </c>
+      <c r="H10" s="18" t="s">
+        <v>27</v>
+      </c>
+      <c r="I10" s="19" t="s">
+        <v>10</v>
+      </c>
+      <c r="J10" s="14" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" ht="15.6" x14ac:dyDescent="0.35">
+      <c r="A11" s="14">
+        <v>10</v>
+      </c>
+      <c r="B11" s="14">
+        <v>10</v>
+      </c>
+      <c r="C11" s="14">
+        <v>0</v>
+      </c>
+      <c r="D11" s="14" t="s">
+        <v>8</v>
+      </c>
+      <c r="E11" s="15" t="s">
+        <v>105</v>
+      </c>
+      <c r="F11" s="16" t="s">
+        <v>125</v>
+      </c>
+      <c r="G11" s="17" t="s">
+        <v>7</v>
+      </c>
+      <c r="H11" s="18" t="s">
+        <v>28</v>
+      </c>
+      <c r="I11" s="19" t="s">
+        <v>10</v>
+      </c>
+      <c r="J11" s="14" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" ht="15.6" x14ac:dyDescent="0.35">
+      <c r="A12" s="14">
+        <v>11</v>
+      </c>
+      <c r="B12" s="14">
+        <v>11</v>
+      </c>
+      <c r="C12" s="14">
+        <v>0</v>
+      </c>
+      <c r="D12" s="14" t="s">
+        <v>8</v>
+      </c>
+      <c r="E12" s="15" t="s">
+        <v>31</v>
+      </c>
+      <c r="F12" s="16" t="s">
+        <v>125</v>
+      </c>
+      <c r="G12" s="17" t="s">
+        <v>7</v>
+      </c>
+      <c r="H12" s="18" t="s">
+        <v>29</v>
+      </c>
+      <c r="I12" s="19" t="s">
+        <v>10</v>
+      </c>
+      <c r="J12" s="14" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" ht="15.6" x14ac:dyDescent="0.35">
+      <c r="A13" s="14">
+        <v>12</v>
+      </c>
+      <c r="B13" s="14">
+        <v>12</v>
+      </c>
+      <c r="C13" s="14">
+        <v>0</v>
+      </c>
+      <c r="D13" s="14" t="s">
+        <v>124</v>
+      </c>
+      <c r="E13" s="15" t="s">
+        <v>32</v>
+      </c>
+      <c r="F13" s="16" t="s">
+        <v>125</v>
+      </c>
+      <c r="G13" s="17" t="s">
+        <v>7</v>
+      </c>
+      <c r="H13" s="18" t="s">
+        <v>30</v>
+      </c>
+      <c r="I13" s="19" t="s">
+        <v>10</v>
+      </c>
+      <c r="J13" s="14" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" ht="15.6" x14ac:dyDescent="0.35">
+      <c r="A14" s="14">
+        <v>13</v>
+      </c>
+      <c r="B14" s="14">
+        <v>13</v>
+      </c>
+      <c r="C14" s="14">
+        <v>0</v>
+      </c>
+      <c r="D14" s="14" t="s">
+        <v>8</v>
+      </c>
+      <c r="E14" s="15" t="s">
+        <v>34</v>
+      </c>
+      <c r="F14" s="16" t="s">
+        <v>126</v>
+      </c>
+      <c r="G14" s="17" t="s">
+        <v>7</v>
+      </c>
+      <c r="H14" s="18" t="s">
+        <v>33</v>
+      </c>
+      <c r="I14" s="19" t="s">
+        <v>10</v>
+      </c>
+      <c r="J14" s="14" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" ht="15.6" x14ac:dyDescent="0.35">
+      <c r="A15" s="14">
+        <v>15</v>
+      </c>
+      <c r="B15" s="14">
+        <v>14</v>
+      </c>
+      <c r="C15" s="14">
+        <v>0</v>
+      </c>
+      <c r="D15" s="14" t="s">
+        <v>8</v>
+      </c>
+      <c r="E15" s="15" t="s">
+        <v>106</v>
+      </c>
+      <c r="F15" s="16" t="s">
+        <v>127</v>
+      </c>
+      <c r="G15" s="17" t="s">
+        <v>7</v>
+      </c>
+      <c r="H15" s="18" t="s">
+        <v>35</v>
+      </c>
+      <c r="I15" s="19" t="s">
+        <v>36</v>
+      </c>
+      <c r="J15" s="14" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" ht="15.6" x14ac:dyDescent="0.35">
+      <c r="A16" s="14">
+        <v>16</v>
+      </c>
+      <c r="B16" s="14">
+        <v>15</v>
+      </c>
+      <c r="C16" s="14">
+        <v>0</v>
+      </c>
+      <c r="D16" s="14" t="s">
+        <v>8</v>
+      </c>
+      <c r="E16" s="15" t="s">
+        <v>107</v>
+      </c>
+      <c r="F16" s="16" t="s">
+        <v>127</v>
+      </c>
+      <c r="G16" s="17" t="s">
+        <v>7</v>
+      </c>
+      <c r="H16" s="18" t="s">
+        <v>37</v>
+      </c>
+      <c r="I16" s="19" t="s">
+        <v>36</v>
+      </c>
+      <c r="J16" s="14" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" ht="15.6" x14ac:dyDescent="0.35">
+      <c r="A17" s="14">
+        <v>35</v>
+      </c>
+      <c r="B17" s="14">
+        <v>16</v>
+      </c>
+      <c r="C17" s="14">
+        <v>0</v>
+      </c>
+      <c r="D17" s="14" t="s">
+        <v>8</v>
+      </c>
+      <c r="E17" s="15" t="s">
+        <v>68</v>
+      </c>
+      <c r="F17" s="16" t="s">
+        <v>127</v>
+      </c>
+      <c r="G17" s="17" t="s">
+        <v>7</v>
+      </c>
+      <c r="H17" s="18" t="s">
+        <v>69</v>
+      </c>
+      <c r="I17" s="19" t="s">
+        <v>36</v>
+      </c>
+      <c r="J17" s="14" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" ht="15.6" x14ac:dyDescent="0.35">
+      <c r="A18" s="14">
+        <v>36</v>
+      </c>
+      <c r="B18" s="14">
+        <v>17</v>
+      </c>
+      <c r="C18" s="14">
+        <v>0</v>
+      </c>
+      <c r="D18" s="14" t="s">
+        <v>8</v>
+      </c>
+      <c r="E18" s="15" t="s">
+        <v>114</v>
+      </c>
+      <c r="F18" s="16" t="s">
+        <v>127</v>
+      </c>
+      <c r="G18" s="17" t="s">
+        <v>7</v>
+      </c>
+      <c r="H18" s="18" t="s">
+        <v>71</v>
+      </c>
+      <c r="I18" s="19" t="s">
+        <v>36</v>
+      </c>
+      <c r="J18" s="14" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" s="5" customFormat="1" ht="15.6" x14ac:dyDescent="0.35">
+      <c r="A19" s="14">
+        <v>37</v>
+      </c>
+      <c r="B19" s="14">
+        <v>18</v>
+      </c>
+      <c r="C19" s="14">
+        <v>0</v>
+      </c>
+      <c r="D19" s="14" t="s">
+        <v>8</v>
+      </c>
+      <c r="E19" s="15" t="s">
+        <v>70</v>
+      </c>
+      <c r="F19" s="16" t="s">
+        <v>127</v>
+      </c>
+      <c r="G19" s="17" t="s">
+        <v>7</v>
+      </c>
+      <c r="H19" s="18" t="s">
+        <v>72</v>
+      </c>
+      <c r="I19" s="19" t="s">
+        <v>36</v>
+      </c>
+      <c r="J19" s="14" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" ht="15.6" x14ac:dyDescent="0.35">
+      <c r="A20" s="14">
+        <v>38</v>
+      </c>
+      <c r="B20" s="14">
+        <v>19</v>
+      </c>
+      <c r="C20" s="14">
+        <v>0</v>
+      </c>
+      <c r="D20" s="14" t="s">
+        <v>8</v>
+      </c>
+      <c r="E20" s="15" t="s">
+        <v>115</v>
+      </c>
+      <c r="F20" s="16" t="s">
+        <v>127</v>
+      </c>
+      <c r="G20" s="17" t="s">
+        <v>7</v>
+      </c>
+      <c r="H20" s="18" t="s">
+        <v>73</v>
+      </c>
+      <c r="I20" s="19" t="s">
+        <v>36</v>
+      </c>
+      <c r="J20" s="14" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" ht="15.6" x14ac:dyDescent="0.35">
+      <c r="A21" s="14">
+        <v>39</v>
+      </c>
+      <c r="B21" s="14">
+        <v>20</v>
+      </c>
+      <c r="C21" s="14">
+        <v>0</v>
+      </c>
+      <c r="D21" s="14" t="s">
+        <v>8</v>
+      </c>
+      <c r="E21" s="15" t="s">
+        <v>116</v>
+      </c>
+      <c r="F21" s="16" t="s">
+        <v>127</v>
+      </c>
+      <c r="G21" s="17" t="s">
+        <v>7</v>
+      </c>
+      <c r="H21" s="18" t="s">
+        <v>74</v>
+      </c>
+      <c r="I21" s="19" t="s">
+        <v>36</v>
+      </c>
+      <c r="J21" s="14" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" ht="15.6" x14ac:dyDescent="0.35">
+      <c r="A22" s="14">
+        <v>40</v>
+      </c>
+      <c r="B22" s="14">
+        <v>21</v>
+      </c>
+      <c r="C22" s="14">
+        <v>0</v>
+      </c>
+      <c r="D22" s="14" t="s">
+        <v>8</v>
+      </c>
+      <c r="E22" s="15" t="s">
+        <v>117</v>
+      </c>
+      <c r="F22" s="16" t="s">
+        <v>127</v>
+      </c>
+      <c r="G22" s="17" t="s">
+        <v>7</v>
+      </c>
+      <c r="H22" s="18" t="s">
+        <v>75</v>
+      </c>
+      <c r="I22" s="19" t="s">
+        <v>36</v>
+      </c>
+      <c r="J22" s="14" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" ht="15.6" x14ac:dyDescent="0.35">
+      <c r="A23" s="14">
+        <v>41</v>
+      </c>
+      <c r="B23" s="14">
+        <v>22</v>
+      </c>
+      <c r="C23" s="14">
+        <v>0</v>
+      </c>
+      <c r="D23" s="14" t="s">
+        <v>8</v>
+      </c>
+      <c r="E23" s="15" t="s">
+        <v>76</v>
+      </c>
+      <c r="F23" s="16" t="s">
+        <v>127</v>
+      </c>
+      <c r="G23" s="17" t="s">
+        <v>7</v>
+      </c>
+      <c r="H23" s="18" t="s">
+        <v>77</v>
+      </c>
+      <c r="I23" s="19" t="s">
+        <v>36</v>
+      </c>
+      <c r="J23" s="14" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10" ht="15.6" x14ac:dyDescent="0.35">
+      <c r="A24" s="14">
+        <v>42</v>
+      </c>
+      <c r="B24" s="14">
+        <v>23</v>
+      </c>
+      <c r="C24" s="14">
+        <v>0</v>
+      </c>
+      <c r="D24" s="14" t="s">
+        <v>8</v>
+      </c>
+      <c r="E24" s="15" t="s">
+        <v>118</v>
+      </c>
+      <c r="F24" s="16" t="s">
+        <v>127</v>
+      </c>
+      <c r="G24" s="17" t="s">
+        <v>7</v>
+      </c>
+      <c r="H24" s="18" t="s">
+        <v>78</v>
+      </c>
+      <c r="I24" s="19" t="s">
+        <v>36</v>
+      </c>
+      <c r="J24" s="14" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10" ht="15.6" x14ac:dyDescent="0.35">
+      <c r="A25" s="14">
+        <v>44</v>
+      </c>
+      <c r="B25" s="14">
+        <v>24</v>
+      </c>
+      <c r="C25" s="14">
+        <v>0</v>
+      </c>
+      <c r="D25" s="14" t="s">
+        <v>8</v>
+      </c>
+      <c r="E25" s="15" t="s">
+        <v>80</v>
+      </c>
+      <c r="F25" s="16" t="s">
+        <v>127</v>
+      </c>
+      <c r="G25" s="17" t="s">
+        <v>7</v>
+      </c>
+      <c r="H25" s="18" t="s">
+        <v>81</v>
+      </c>
+      <c r="I25" s="19" t="s">
+        <v>123</v>
+      </c>
+      <c r="J25" s="14" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10" ht="15.6" x14ac:dyDescent="0.35">
+      <c r="A26" s="4"/>
+      <c r="B26" s="4"/>
+      <c r="C26" s="4"/>
+      <c r="D26" s="4"/>
+      <c r="E26" s="10"/>
+      <c r="F26" s="20"/>
+      <c r="G26" s="11"/>
+      <c r="H26" s="6"/>
+      <c r="I26" s="7"/>
+      <c r="J26" s="4"/>
+    </row>
+    <row r="27" spans="1:10" ht="15.6" x14ac:dyDescent="0.35">
+      <c r="A27" s="4"/>
+      <c r="B27" s="4"/>
+      <c r="C27" s="4"/>
+      <c r="D27" s="4"/>
+      <c r="E27" s="10"/>
+      <c r="F27" s="20"/>
+      <c r="G27" s="11"/>
+      <c r="H27" s="6"/>
+      <c r="I27" s="7"/>
+      <c r="J27" s="4"/>
+    </row>
+    <row r="28" spans="1:10" ht="15.6" x14ac:dyDescent="0.35">
+      <c r="A28" s="4"/>
+      <c r="B28" s="4"/>
+      <c r="C28" s="4"/>
+      <c r="D28" s="4"/>
+      <c r="E28" s="10"/>
+      <c r="F28" s="20"/>
+      <c r="G28" s="11"/>
+      <c r="H28" s="6"/>
+      <c r="I28" s="7"/>
+      <c r="J28" s="4"/>
+    </row>
+    <row r="29" spans="1:10" ht="15.6" x14ac:dyDescent="0.35">
+      <c r="A29" s="4"/>
+      <c r="B29" s="4"/>
+      <c r="C29" s="4"/>
+      <c r="D29" s="4"/>
+      <c r="E29" s="10"/>
+      <c r="F29" s="20"/>
+      <c r="G29" s="11"/>
+      <c r="H29" s="6"/>
+      <c r="I29" s="7"/>
+      <c r="J29" s="4"/>
+    </row>
+    <row r="30" spans="1:10" ht="15.6" x14ac:dyDescent="0.35">
+      <c r="A30" s="4"/>
+      <c r="B30" s="4"/>
+      <c r="C30" s="4"/>
+      <c r="D30" s="4"/>
+      <c r="E30" s="10"/>
+      <c r="F30" s="20"/>
+      <c r="G30" s="11"/>
+      <c r="H30" s="6"/>
+      <c r="I30" s="7"/>
+      <c r="J30" s="4"/>
+    </row>
+    <row r="31" spans="1:10" ht="15.6" x14ac:dyDescent="0.35">
+      <c r="A31" s="4"/>
+      <c r="B31" s="4"/>
+      <c r="C31" s="4"/>
+      <c r="D31" s="4"/>
+      <c r="E31" s="10"/>
+      <c r="F31" s="20"/>
+      <c r="G31" s="11"/>
+      <c r="H31" s="6"/>
+      <c r="I31" s="7"/>
+      <c r="J31" s="4"/>
+    </row>
+    <row r="32" spans="1:10" ht="15.6" x14ac:dyDescent="0.35">
+      <c r="A32" s="4"/>
+      <c r="B32" s="4"/>
+      <c r="C32" s="4"/>
+      <c r="D32" s="4"/>
+      <c r="E32" s="10"/>
+      <c r="F32" s="20"/>
+      <c r="G32" s="11"/>
+      <c r="H32" s="6"/>
+      <c r="I32" s="7"/>
+      <c r="J32" s="4"/>
+    </row>
+    <row r="33" spans="1:10" ht="15.6" x14ac:dyDescent="0.35">
+      <c r="A33" s="4"/>
+      <c r="B33" s="4"/>
+      <c r="C33" s="4"/>
+      <c r="D33" s="4"/>
+      <c r="E33" s="10"/>
+      <c r="F33" s="20"/>
+      <c r="G33" s="11"/>
+      <c r="H33" s="6"/>
+      <c r="I33" s="7"/>
+      <c r="J33" s="4"/>
+    </row>
+    <row r="34" spans="1:10" ht="15.6" x14ac:dyDescent="0.35">
+      <c r="A34" s="4"/>
+      <c r="B34" s="4"/>
+      <c r="C34" s="4"/>
+      <c r="D34" s="4"/>
+      <c r="E34" s="10"/>
+      <c r="F34" s="20"/>
+      <c r="G34" s="11"/>
+      <c r="H34" s="6"/>
+      <c r="I34" s="7"/>
+      <c r="J34" s="4"/>
+    </row>
+    <row r="35" spans="1:10" ht="15.6" x14ac:dyDescent="0.35">
+      <c r="A35" s="4"/>
+      <c r="B35" s="4"/>
+      <c r="C35" s="4"/>
+      <c r="D35" s="4"/>
+      <c r="E35" s="10"/>
+      <c r="F35" s="20"/>
+      <c r="G35" s="11"/>
+      <c r="H35" s="6"/>
+      <c r="I35" s="7"/>
+      <c r="J35" s="4"/>
+    </row>
+    <row r="36" spans="1:10" ht="15.6" x14ac:dyDescent="0.35">
+      <c r="A36" s="4"/>
+      <c r="B36" s="4"/>
+      <c r="C36" s="4"/>
+      <c r="D36" s="4"/>
+      <c r="E36" s="10"/>
+      <c r="F36" s="20"/>
+      <c r="G36" s="11"/>
+      <c r="H36" s="6"/>
+      <c r="I36" s="7"/>
+      <c r="J36" s="4"/>
+    </row>
+    <row r="37" spans="1:10" ht="15.6" x14ac:dyDescent="0.35">
+      <c r="A37" s="4"/>
+      <c r="B37" s="4"/>
+      <c r="C37" s="4"/>
+      <c r="D37" s="4"/>
+      <c r="E37" s="10"/>
+      <c r="F37" s="20"/>
+      <c r="G37" s="11"/>
+      <c r="H37" s="6"/>
+      <c r="I37" s="7"/>
+      <c r="J37" s="4"/>
+    </row>
+    <row r="38" spans="1:10" ht="15.6" x14ac:dyDescent="0.35">
+      <c r="A38" s="4"/>
+      <c r="B38" s="4"/>
+      <c r="C38" s="4"/>
+      <c r="D38" s="4"/>
+      <c r="E38" s="10"/>
+      <c r="F38" s="20"/>
+      <c r="G38" s="11"/>
+      <c r="H38" s="6"/>
+      <c r="I38" s="7"/>
+      <c r="J38" s="4"/>
+    </row>
+    <row r="39" spans="1:10" ht="15.6" x14ac:dyDescent="0.35">
+      <c r="A39" s="4"/>
+      <c r="B39" s="4"/>
+      <c r="C39" s="4"/>
+      <c r="D39" s="4"/>
+      <c r="E39" s="10"/>
+      <c r="F39" s="20"/>
+      <c r="G39" s="11"/>
+      <c r="H39" s="6"/>
+      <c r="I39" s="7"/>
+      <c r="J39" s="4"/>
+    </row>
+    <row r="40" spans="1:10" ht="15.6" x14ac:dyDescent="0.35">
+      <c r="A40" s="4"/>
+      <c r="B40" s="4"/>
+      <c r="C40" s="4"/>
+      <c r="D40" s="4"/>
+      <c r="E40" s="10"/>
+      <c r="F40" s="20"/>
+      <c r="G40" s="11"/>
+      <c r="H40" s="6"/>
+      <c r="I40" s="7"/>
+      <c r="J40" s="4"/>
+    </row>
+    <row r="41" spans="1:10" ht="15.6" x14ac:dyDescent="0.35">
+      <c r="A41" s="4"/>
+      <c r="B41" s="4"/>
+      <c r="C41" s="4"/>
+      <c r="D41" s="4"/>
+      <c r="E41" s="10"/>
+      <c r="F41" s="20"/>
+      <c r="G41" s="11"/>
+      <c r="H41" s="6"/>
+      <c r="I41" s="7"/>
+      <c r="J41" s="4"/>
+    </row>
+    <row r="42" spans="1:10" ht="15.6" x14ac:dyDescent="0.35">
+      <c r="A42" s="4"/>
+      <c r="B42" s="4"/>
+      <c r="C42" s="4"/>
+      <c r="D42" s="4"/>
+      <c r="E42" s="10"/>
+      <c r="F42" s="20"/>
+      <c r="G42" s="11"/>
+      <c r="H42" s="6"/>
+      <c r="I42" s="7"/>
+      <c r="J42" s="4"/>
+    </row>
+    <row r="43" spans="1:10" ht="15.6" x14ac:dyDescent="0.35">
+      <c r="A43" s="4"/>
+      <c r="B43" s="4"/>
+      <c r="C43" s="4"/>
+      <c r="D43" s="4"/>
+      <c r="E43" s="10"/>
+      <c r="F43" s="20"/>
+      <c r="G43" s="11"/>
+      <c r="H43" s="6"/>
+      <c r="I43" s="7"/>
+      <c r="J43" s="4"/>
+    </row>
+    <row r="44" spans="1:10" ht="15.6" x14ac:dyDescent="0.35">
+      <c r="A44" s="4"/>
+      <c r="B44" s="4"/>
+      <c r="C44" s="4"/>
+      <c r="D44" s="4"/>
+      <c r="E44" s="10"/>
+      <c r="F44" s="20"/>
+      <c r="G44" s="11"/>
+      <c r="H44" s="6"/>
+      <c r="I44" s="7"/>
+      <c r="J44" s="4"/>
+    </row>
+    <row r="45" spans="1:10" ht="15.6" x14ac:dyDescent="0.35">
+      <c r="A45" s="4"/>
+      <c r="B45" s="4"/>
+      <c r="C45" s="4"/>
+      <c r="D45" s="4"/>
+      <c r="E45" s="10"/>
+      <c r="F45" s="20"/>
+      <c r="G45" s="11"/>
+      <c r="H45" s="6"/>
+      <c r="I45" s="7"/>
+      <c r="J45" s="4"/>
+    </row>
+    <row r="46" spans="1:10" ht="15.6" x14ac:dyDescent="0.35">
+      <c r="A46" s="4"/>
+      <c r="B46" s="4"/>
+      <c r="C46" s="4"/>
+      <c r="D46" s="4"/>
+      <c r="E46" s="10"/>
+      <c r="F46" s="20"/>
+      <c r="G46" s="11"/>
+      <c r="H46" s="6"/>
+      <c r="I46" s="7"/>
+      <c r="J46" s="4"/>
+    </row>
+    <row r="47" spans="1:10" ht="15.6" x14ac:dyDescent="0.35">
+      <c r="A47" s="4"/>
+      <c r="B47" s="4"/>
+      <c r="C47" s="4"/>
+      <c r="D47" s="4"/>
+      <c r="E47" s="10"/>
+      <c r="F47" s="20"/>
+      <c r="G47" s="11"/>
+      <c r="H47" s="6"/>
+      <c r="I47" s="7"/>
+      <c r="J47" s="4"/>
+    </row>
+    <row r="48" spans="1:10" ht="15.6" x14ac:dyDescent="0.35">
+      <c r="A48" s="4"/>
+      <c r="B48" s="4"/>
+      <c r="C48" s="4"/>
+      <c r="D48" s="4"/>
+      <c r="E48" s="10"/>
+      <c r="F48" s="20"/>
+      <c r="G48" s="11"/>
+      <c r="H48" s="6"/>
+      <c r="I48" s="7"/>
+      <c r="J48" s="4"/>
+    </row>
+    <row r="49" spans="1:10" ht="15.6" x14ac:dyDescent="0.35">
+      <c r="A49" s="4"/>
+      <c r="B49" s="4"/>
+      <c r="C49" s="4"/>
+      <c r="D49" s="4"/>
+      <c r="E49" s="10"/>
+      <c r="F49" s="20"/>
+      <c r="G49" s="11"/>
+      <c r="H49" s="6"/>
+      <c r="I49" s="7"/>
+      <c r="J49" s="4"/>
+    </row>
+    <row r="50" spans="1:10" ht="15.6" x14ac:dyDescent="0.35">
+      <c r="A50" s="4"/>
+      <c r="B50" s="4"/>
+      <c r="C50" s="4"/>
+      <c r="D50" s="4"/>
+      <c r="E50" s="10"/>
+      <c r="F50" s="20"/>
+      <c r="G50" s="11"/>
+      <c r="H50" s="6"/>
+      <c r="I50" s="7"/>
+      <c r="J50" s="4"/>
+    </row>
+    <row r="51" spans="1:10" ht="15.6" x14ac:dyDescent="0.35">
+      <c r="A51" s="4"/>
+      <c r="B51" s="4"/>
+      <c r="C51" s="4"/>
+      <c r="D51" s="4"/>
+      <c r="E51" s="10"/>
+      <c r="F51" s="20"/>
+      <c r="G51" s="11"/>
+      <c r="H51" s="6"/>
+      <c r="I51" s="7"/>
+      <c r="J51" s="4"/>
+    </row>
+    <row r="52" spans="1:10" ht="15.6" x14ac:dyDescent="0.35">
+      <c r="A52" s="4"/>
+      <c r="B52" s="4"/>
+      <c r="C52" s="4"/>
+      <c r="D52" s="4"/>
+      <c r="E52" s="10"/>
+      <c r="F52" s="20"/>
+      <c r="G52" s="11"/>
+      <c r="H52" s="6"/>
+      <c r="I52" s="7"/>
+      <c r="J52" s="4"/>
+    </row>
+    <row r="53" spans="1:10" ht="15.6" x14ac:dyDescent="0.35">
+      <c r="A53" s="4"/>
+      <c r="B53" s="4"/>
+      <c r="C53" s="4"/>
+      <c r="D53" s="4"/>
+      <c r="E53" s="10"/>
+      <c r="F53" s="20"/>
+      <c r="G53" s="11"/>
+      <c r="H53" s="6"/>
+      <c r="I53" s="7"/>
+      <c r="J53" s="4"/>
+    </row>
+    <row r="54" spans="1:10" ht="15.6" x14ac:dyDescent="0.35">
+      <c r="A54" s="4"/>
+      <c r="B54" s="4"/>
+      <c r="C54" s="4"/>
+      <c r="D54" s="4"/>
+      <c r="E54" s="10"/>
+      <c r="F54" s="20"/>
+      <c r="G54" s="11"/>
+      <c r="H54" s="6"/>
+      <c r="I54" s="7"/>
+      <c r="J54" s="4"/>
+    </row>
+    <row r="55" spans="1:10" ht="15.6" x14ac:dyDescent="0.35">
+      <c r="A55" s="4"/>
+      <c r="B55" s="4"/>
+      <c r="C55" s="4"/>
+      <c r="D55" s="4"/>
+      <c r="E55" s="10"/>
+      <c r="F55" s="20"/>
+      <c r="G55" s="11"/>
+      <c r="H55" s="6"/>
+      <c r="I55" s="7"/>
+      <c r="J55" s="4"/>
+    </row>
+    <row r="56" spans="1:10" ht="15.6" x14ac:dyDescent="0.35">
+      <c r="A56" s="4"/>
+      <c r="B56" s="4"/>
+      <c r="C56" s="4"/>
+      <c r="D56" s="4"/>
+      <c r="E56" s="10"/>
+      <c r="F56" s="20"/>
+      <c r="G56" s="11"/>
+      <c r="H56" s="6"/>
+      <c r="I56" s="7"/>
+      <c r="J56" s="4"/>
+    </row>
+    <row r="57" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A57" s="8"/>
+      <c r="B57" s="8"/>
+      <c r="C57" s="8"/>
+      <c r="D57" s="8"/>
+      <c r="E57" s="8"/>
+      <c r="F57" s="8"/>
+      <c r="G57" s="8"/>
+      <c r="H57" s="8"/>
+      <c r="I57" s="8"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <hyperlinks>
+    <hyperlink ref="H2" r:id="rId1"/>
+    <hyperlink ref="H4" r:id="rId2"/>
+    <hyperlink ref="H17" r:id="rId3"/>
+    <hyperlink ref="H18" r:id="rId4"/>
+    <hyperlink ref="H23" r:id="rId5"/>
+    <hyperlink ref="H24" r:id="rId6"/>
+    <hyperlink ref="H25" r:id="rId7"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId8"/>
+</worksheet>
 </file>